--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A485D881-3172-474D-A42C-796C372E78E7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7FAAE-1D57-48B7-A6D2-1C0820A36EB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -586,6 +586,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,50 +600,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -691,6 +654,43 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -705,16 +705,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B22:R37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ausrüstung gesamt"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SP"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="gold/stück"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="4">
       <calculatedColumnFormula>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="black orks"/>
@@ -723,12 +723,12 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="shootaz"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="savage"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="troll"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="3">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="0">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1048,7 +1048,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43409</v>
+        <v>43417</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1083,8 +1083,8 @@
         <v>40</v>
       </c>
       <c r="H4" s="35">
-        <f>5*(D19+G41+G42)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+10+G41*C41+G41*D41+G42*C42+G42*D42</f>
-        <v>137</v>
+        <f>5*(D19)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+10+G41*C41+G41*D41+G42*C42+G42*D42</f>
+        <v>127</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
@@ -1161,7 +1161,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>19976.987499999999</v>
+        <v>19093.05</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1183,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1204,7 +1204,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="A16" s="50"/>
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1339,30 +1339,30 @@
     <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="E20" s="1"/>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
     </row>
     <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
@@ -2397,7 +2397,7 @@
     <mergeCell ref="K21:N21"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="3" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="54" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2486,17 +2486,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2548,7 +2548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -2568,11 +2568,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
@@ -2585,21 +2585,21 @@
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="K5" s="49" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="K5" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="49"/>
+      <c r="L5" s="51"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
@@ -3005,31 +3005,31 @@
         <v>20</v>
       </c>
       <c r="C19" s="28">
-        <f>$K7*C8/C$28</f>
+        <f t="shared" ref="C19:E26" si="0">$K7*C8/C$28</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="D19" s="28">
-        <f>$K7*D8/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E19" s="28">
-        <f>$K7*E8/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F19" s="28">
-        <f>$L7*F8/F$28</f>
+        <f t="shared" ref="F19:H27" si="1">$L7*F8/F$28</f>
         <v>0.36</v>
       </c>
       <c r="G19" s="28">
-        <f>$L7*G8/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="H19" s="28">
-        <f>$L7*H8/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="I19" s="28">
-        <f>$N$6*$M7*I8/I$28</f>
+        <f t="shared" ref="I19:I27" si="2">$N$6*$M7*I8/I$28</f>
         <v>4.5</v>
       </c>
     </row>
@@ -3038,31 +3038,31 @@
         <v>21</v>
       </c>
       <c r="C20" s="28">
-        <f>$K8*C9/C$28</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="D20" s="28">
-        <f>$K8*D9/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E20" s="28">
-        <f>$K8*E9/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="F20" s="28">
-        <f>$L8*F9/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G20" s="28">
-        <f>$L8*G9/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H20" s="28">
-        <f>$L8*H9/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I20" s="28">
-        <f>$N$6*$M8*I9/I$28</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3071,31 +3071,31 @@
         <v>22</v>
       </c>
       <c r="C21" s="28">
-        <f>$K9*C10/C$28</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="D21" s="28">
-        <f>$K9*D10/D$28</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E21" s="28">
-        <f>$K9*E10/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F21" s="28">
-        <f>$L9*F10/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G21" s="28">
-        <f>$L9*G10/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H21" s="28">
-        <f>$L9*H10/H$28</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I21" s="28">
-        <f>$N$6*$M9*I10/I$28</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
@@ -3104,31 +3104,31 @@
         <v>23</v>
       </c>
       <c r="C22" s="28">
-        <f>$K10*C11/C$28</f>
+        <f t="shared" si="0"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="D22" s="28">
-        <f>$K10*D11/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E22" s="28">
-        <f>$K10*E11/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="F22" s="28">
-        <f>$L10*F11/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="G22" s="28">
-        <f>$L10*G11/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="H22" s="28">
-        <f>$L10*H11/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I22" s="28">
-        <f>$N$6*$M10*I11/I$28</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -3137,31 +3137,31 @@
         <v>24</v>
       </c>
       <c r="C23" s="28">
-        <f>$K11*C12/C$28</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D23" s="28">
-        <f>$K11*D12/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E23" s="28">
-        <f>$K11*E12/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F23" s="28">
-        <f>$L11*F12/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G23" s="28">
-        <f>$L11*G12/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H23" s="28">
-        <f>$L11*H12/H$28</f>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I23" s="28">
-        <f>$N$6*$M11*I12/I$28</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
@@ -3170,31 +3170,31 @@
         <v>25</v>
       </c>
       <c r="C24" s="28">
-        <f>$K12*C13/C$28</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D24" s="28">
-        <f>$K12*D13/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="E24" s="28">
-        <f>$K12*E13/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F24" s="28">
-        <f>$L12*F13/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="G24" s="28">
-        <f>$L12*G13/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="H24" s="28">
-        <f>$L12*H13/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="I24" s="28">
-        <f>$N$6*$M12*I13/I$28</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
@@ -3203,31 +3203,31 @@
         <v>26</v>
       </c>
       <c r="C25" s="28">
-        <f>$K13*C14/C$28</f>
+        <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="D25" s="28">
-        <f>$K13*D14/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E25" s="28">
-        <f>$K13*E14/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F25" s="28">
-        <f>$L13*F14/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G25" s="28">
-        <f>$L13*G14/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H25" s="28">
-        <f>$L13*H14/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="I25" s="28">
-        <f>$N$6*$M13*I14/I$28</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
@@ -3236,31 +3236,31 @@
         <v>27</v>
       </c>
       <c r="C26" s="28">
-        <f>$K14*C15/C$28</f>
+        <f t="shared" si="0"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="D26" s="28">
-        <f>$K14*D15/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.11666666666666667</v>
       </c>
       <c r="E26" s="28">
-        <f>$K14*E15/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F26" s="28">
-        <f>$L14*F15/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="G26" s="28">
-        <f>$L14*G15/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="H26" s="28">
-        <f>$L14*H15/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="I26" s="28">
-        <f>$N$6*$M14*I15/I$28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -3281,19 +3281,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f>$L15*F16/F$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>$L15*G16/G$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f>$L15*H16/H$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f>$N$6*$M15*I16/I$28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J27" s="6"/>
@@ -3302,63 +3302,63 @@
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="48">
         <f>Member!C12</f>
         <v>90</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="48">
         <f>Member!C13</f>
         <v>60</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="48">
         <f>Member!C14</f>
         <v>25</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="48">
         <f>Member!C15</f>
         <v>25</v>
       </c>
-      <c r="G28" s="52">
+      <c r="G28" s="48">
         <f>Member!C16</f>
         <v>25</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="48">
         <f>Member!C17</f>
         <v>40</v>
       </c>
-      <c r="I28" s="52">
+      <c r="I28" s="48">
         <f>Member!C18</f>
         <v>200</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="53">
+      <c r="C29" s="49">
         <f>SUM(C19:C27)</f>
         <v>0.74444444444444446</v>
       </c>
-      <c r="D29" s="53">
-        <f t="shared" ref="D29:I29" si="0">SUM(D19:D27)</f>
+      <c r="D29" s="49">
+        <f t="shared" ref="D29:I29" si="3">SUM(D19:D27)</f>
         <v>1.0833333333333335</v>
       </c>
-      <c r="E29" s="53">
-        <f t="shared" si="0"/>
+      <c r="E29" s="49">
+        <f t="shared" si="3"/>
         <v>1.68</v>
       </c>
-      <c r="F29" s="53">
-        <f t="shared" si="0"/>
+      <c r="F29" s="49">
+        <f t="shared" si="3"/>
         <v>1.84</v>
       </c>
-      <c r="G29" s="53">
-        <f t="shared" si="0"/>
+      <c r="G29" s="49">
+        <f t="shared" si="3"/>
         <v>1.84</v>
       </c>
-      <c r="H29" s="53">
-        <f t="shared" si="0"/>
+      <c r="H29" s="49">
+        <f t="shared" si="3"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="I29" s="53">
-        <f t="shared" si="0"/>
+      <c r="I29" s="49">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7FAAE-1D57-48B7-A6D2-1C0820A36EB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90635A6-2D89-40AE-A626-9E4F1AFDD560}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
   <si>
     <t>gold</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>v1.13</t>
-  </si>
-  <si>
-    <t>H41*G41</t>
   </si>
   <si>
     <t>Hired sword eq rating</t>
@@ -1002,7 +999,7 @@
   <dimension ref="A2:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1112,56 +1109,56 @@
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O38+G41*E41+G42*E42</f>
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J30+I41*G41+G42</f>
-        <v>15.714444444444444</v>
+        <v>15.714444444444</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="37">
         <f>H41*G41</f>
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>19093.05</v>
+        <v>17943.931249999492</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1280,9 +1277,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>110</v>
-      </c>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
@@ -1436,12 +1431,15 @@
         <v>1</v>
       </c>
       <c r="I23" s="33">
+        <f>D13</f>
         <v>2</v>
       </c>
       <c r="J23" s="33">
+        <f>D14</f>
         <v>2</v>
       </c>
       <c r="K23" s="33">
+        <f>D15</f>
         <v>4</v>
       </c>
       <c r="L23" s="33">
@@ -1490,7 +1488,8 @@
         <v>0</v>
       </c>
       <c r="K24" s="6">
-        <v>0</v>
+        <f>D15</f>
+        <v>4</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1503,7 +1502,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1513,7 +1512,7 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1531,16 +1530,18 @@
         <v>5</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="6">
+        <f>D13</f>
         <v>2</v>
       </c>
       <c r="J25" s="6">
+        <f>D14</f>
         <v>2</v>
       </c>
       <c r="K25" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -1553,7 +1554,7 @@
       </c>
       <c r="O25" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="P25" s="27" t="s">
         <v>49</v>
@@ -1563,7 +1564,7 @@
       </c>
       <c r="R25" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1731,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="6">
         <v>0</v>
@@ -1753,7 +1754,7 @@
       </c>
       <c r="O29" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P29" s="27" t="s">
         <v>49</v>
@@ -1763,7 +1764,7 @@
       </c>
       <c r="R29" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2034,7 +2035,7 @@
         <v>20</v>
       </c>
       <c r="H35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -2056,7 +2057,7 @@
       </c>
       <c r="O35" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>49</v>
@@ -2066,7 +2067,7 @@
       </c>
       <c r="R35" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2173,7 +2174,7 @@
     <row r="38" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="3">
         <f t="shared" ref="H38:N38" si="1">H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="1"/>
@@ -2185,7 +2186,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
@@ -2201,7 +2202,7 @@
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2210,7 +2211,7 @@
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2246,7 +2247,7 @@
       </c>
       <c r="R40" s="6">
         <f>SUM(R32:R37)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2275,7 +2276,7 @@
       </c>
       <c r="I41" s="28">
         <f>SUM('Characteristik analyse'!D19:D27)</f>
-        <v>1.0833333333333335</v>
+        <v>1.0833333333333</v>
       </c>
       <c r="J41" s="6">
         <v>0.5</v>
@@ -2285,7 +2286,7 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2569,7 +2570,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="C19" s="28">
         <f t="shared" ref="C19:E26" si="0">$K7*C8/C$28</f>
-        <v>0.13333333333333333</v>
+        <v>0.1333333333333</v>
       </c>
       <c r="D19" s="28">
         <f t="shared" si="0"/>
@@ -3039,7 +3040,7 @@
       </c>
       <c r="C20" s="28">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <v>4.4444444444400003E-2</v>
       </c>
       <c r="D20" s="28">
         <f t="shared" si="0"/>
@@ -3072,11 +3073,11 @@
       </c>
       <c r="C21" s="28">
         <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <v>4.4444444444400003E-2</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.66666666667E-2</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="0"/>
@@ -3105,7 +3106,7 @@
       </c>
       <c r="C22" s="28">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.1333333333333</v>
       </c>
       <c r="D22" s="28">
         <f t="shared" si="0"/>
@@ -3138,7 +3139,7 @@
       </c>
       <c r="C23" s="28">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.3333333333299998E-2</v>
       </c>
       <c r="D23" s="28">
         <f t="shared" si="0"/>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="C25" s="28">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.3333333333299998E-2</v>
       </c>
       <c r="D25" s="28">
         <f t="shared" si="0"/>
@@ -3237,11 +3238,11 @@
       </c>
       <c r="C26" s="28">
         <f t="shared" si="0"/>
-        <v>8.8888888888888892E-2</v>
+        <v>8.8888888888899995E-2</v>
       </c>
       <c r="D26" s="28">
         <f t="shared" si="0"/>
-        <v>0.11666666666666667</v>
+        <v>0.1166666666667</v>
       </c>
       <c r="E26" s="28">
         <f t="shared" si="0"/>
@@ -3270,7 +3271,7 @@
       </c>
       <c r="C27" s="28">
         <f>$K15*C16/C28</f>
-        <v>0.13333333333333333</v>
+        <v>0.1333333333333</v>
       </c>
       <c r="D27" s="28">
         <f>$K15*D16/D28</f>
@@ -3334,12 +3335,12 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C29" s="49">
-        <f>SUM(C19:C27)</f>
-        <v>0.74444444444444446</v>
+        <f t="shared" ref="C29:I29" si="3">SUM(C19:C27)</f>
+        <v>0.74444444444440006</v>
       </c>
       <c r="D29" s="49">
-        <f t="shared" ref="D29:I29" si="3">SUM(D19:D27)</f>
-        <v>1.0833333333333335</v>
+        <f t="shared" si="3"/>
+        <v>1.0833333333333</v>
       </c>
       <c r="E29" s="49">
         <f t="shared" si="3"/>
@@ -3365,11 +3366,11 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C30" s="28">
         <f>SUM(C19:C27)*Member!$D12</f>
-        <v>0.74444444444444446</v>
+        <v>0.74444444444440006</v>
       </c>
       <c r="D30" s="28">
         <f>SUM(D19:D27)*Member!$D13</f>
-        <v>2.166666666666667</v>
+        <v>2.1666666666666998</v>
       </c>
       <c r="E30" s="28">
         <f>SUM(E19:E27)*Member!$D14</f>
@@ -3393,7 +3394,7 @@
       </c>
       <c r="J30" s="40">
         <f>SUM(C30:I30)</f>
-        <v>13.63111111111111</v>
+        <v>13.631111111111</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90635A6-2D89-40AE-A626-9E4F1AFDD560}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA461C26-018A-48C1-A7BE-C581AA02E6E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Member" sheetId="1" r:id="rId1"/>
     <sheet name="Characteristik analyse" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>gold</t>
   </si>
@@ -998,44 +998,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0" topLeftCell="F15">
+      <selection activeCell="F28" sqref="F28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" ht="18">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1052,13 +1055,13 @@
       </c>
       <c r="H2" s="35">
         <f>1.25+J41*G41+J42*G42</f>
-        <v>1.875</v>
+        <v>1.25</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" ht="18" customFormat="1" s="6">
       <c r="A3" s="8" t="s">
         <v>109</v>
       </c>
@@ -1075,18 +1078,18 @@
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="G4" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="35">
         <f>5*(D19)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+10+G41*C41+G41*D41+G42*C42+G42*D42</f>
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1098,71 +1101,71 @@
       </c>
       <c r="H5" s="35">
         <f>ROUNDUP((G41+G42+D19)/4,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O38+G41*E41+G42*E42</f>
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J30+I41*G41+G42</f>
-        <v>15.714444444444</v>
+        <v>35.271111111111</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>110</v>
       </c>
       <c r="H7" s="37">
         <f>H41*G41</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customFormat="1" s="6">
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>17943.931249999492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11727.644444444</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" s="6"/>
+    <row r="11">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1179,7 +1182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="50" t="s">
         <v>30</v>
       </c>
@@ -1196,11 +1199,11 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F18" si="0">D12*C12</f>
+        <f>D12*C12</f>
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="50"/>
       <c r="B13" t="s">
         <v>54</v>
@@ -1215,11 +1218,11 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>D13*C13</f>
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="50"/>
       <c r="B14" t="s">
         <v>55</v>
@@ -1234,11 +1237,11 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>D14*C14</f>
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="50" t="s">
         <v>31</v>
       </c>
@@ -1249,17 +1252,17 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <f>D15*C15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="50"/>
       <c r="B16" t="s">
         <v>58</v>
@@ -1274,12 +1277,12 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f>D16*C16</f>
         <v>0</v>
       </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="50"/>
       <c r="B17" t="s">
         <v>57</v>
@@ -1294,11 +1297,11 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <f>D17*C17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="50"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
@@ -1307,31 +1310,31 @@
         <v>200</v>
       </c>
       <c r="D18" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="25">
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+        <f>D18*C18</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" ht="15">
       <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(D12:D18)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" s="6">
       <c r="A20" s="14"/>
       <c r="E20" s="1"/>
       <c r="H20" s="51" t="s">
@@ -1344,7 +1347,7 @@
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="H21" s="51" t="s">
@@ -1359,7 +1362,7 @@
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="1" s="6">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="1" s="33">
       <c r="B23" s="33" t="s">
         <v>86</v>
       </c>
@@ -1440,7 +1443,7 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" s="33">
         <v>0</v>
@@ -1461,10 +1464,10 @@
       </c>
       <c r="R23" s="43">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" s="6">
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
@@ -1489,7 +1492,7 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1502,7 +1505,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1512,10 +1515,10 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" s="6">
       <c r="B25" s="6" t="s">
         <v>85</v>
       </c>
@@ -1533,7 +1536,6 @@
         <v>1</v>
       </c>
       <c r="I25" s="6">
-        <f>D13</f>
         <v>2</v>
       </c>
       <c r="J25" s="6">
@@ -1567,7 +1569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="1" s="6">
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="1" s="6">
       <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="1" s="6">
       <c r="B28" s="6" t="s">
         <v>82</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="1" s="6">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="1" s="6">
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="1" s="6">
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="1" s="6">
       <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="1" s="6">
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="1" s="6">
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="1" s="6">
       <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="H35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="6">
         <v>0</v>
@@ -2057,7 +2059,7 @@
       </c>
       <c r="O35" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P35" s="27" t="s">
         <v>49</v>
@@ -2067,10 +2069,10 @@
       </c>
       <c r="R35" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" s="6">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="1" s="6">
       <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2171,50 +2173,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="1" s="6">
       <c r="H38" s="3">
-        <f t="shared" ref="H38:N38" si="1">H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
-        <v>35</v>
+        <f>H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
+        <v>15</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
+        <f>I24*$G24+I25*$G25+I26*$G26+I27*$G27+I28*$G28+I29*$G29+I30*$G30+I31*$G31+I32*$G32+I33*$G33+I34*$G34+I35*$G35+I36*$G36+I37*$G37</f>
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="1"/>
+        <f>J24*$G24+J25*$G25+J26*$G26+J27*$G27+J28*$G28+J29*$G29+J30*$G30+J31*$G31+J32*$G32+J33*$G33+J34*$G34+J35*$G35+J36*$G36+J37*$G37</f>
         <v>10</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>K24*$G24+K25*$G25+K26*$G26+K27*$G27+K28*$G28+K29*$G29+K30*$G30+K31*$G31+K32*$G32+K33*$G33+K34*$G34+K35*$G35+K36*$G36+K37*$G37</f>
+        <v>0</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="1"/>
+        <f>L24*$G24+L25*$G25+L26*$G26+L27*$G27+L28*$G28+L29*$G29+L30*$G30+L31*$G31+L32*$G32+L33*$G33+L34*$G34+L35*$G35+L36*$G36+L37*$G37</f>
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="1"/>
+        <f>M24*$G24+M25*$G25+M26*$G26+M27*$G27+M28*$G28+M29*$G29+M30*$G30+M31*$G31+M32*$G32+M33*$G33+M34*$G34+M35*$G35+M36*$G36+M37*$G37</f>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="1"/>
+        <f>N24*$G24+N25*$G25+N26*$G26+N27*$G27+N28*$G28+N29*$G29+N30*$G30+N31*$G31+N32*$G32+N33*$G33+N34*$G34+N35*$G35+N36*$G36+N37*$G37</f>
         <v>0</v>
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" s="6">
       <c r="Q39" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" s="6">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -2247,10 +2249,10 @@
       </c>
       <c r="R40" s="6">
         <f>SUM(R32:R37)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" s="6">
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>25</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="6">
         <f>Q36+Q34+Q29+Q37</f>
@@ -2286,10 +2288,10 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" s="6">
       <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
@@ -2319,76 +2321,76 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="1" s="6"/>
+    <row r="44" customFormat="1" s="6"/>
+    <row r="45" customFormat="1" s="6"/>
+    <row r="46" customFormat="1" s="6"/>
+    <row r="47" customFormat="1" s="6"/>
+    <row r="48" customFormat="1" s="6"/>
+    <row r="49" customFormat="1" s="6"/>
+    <row r="50" customFormat="1" s="6">
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="1" s="6">
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="16:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" s="6"/>
+    <row r="54" customFormat="1" s="6"/>
+    <row r="55" customFormat="1" s="6"/>
+    <row r="56" customFormat="1" s="6"/>
+    <row r="57" customFormat="1" s="6"/>
+    <row r="58" customFormat="1" s="6"/>
+    <row r="59" customFormat="1" s="6"/>
+    <row r="60" customFormat="1" s="6"/>
+    <row r="61" customFormat="1" s="6"/>
+    <row r="62" customFormat="1" s="6"/>
+    <row r="63" customFormat="1" s="6"/>
+    <row r="64" customFormat="1" s="6"/>
+    <row r="65" customFormat="1" s="6"/>
+    <row r="66" customFormat="1" s="6"/>
+    <row r="67" customFormat="1" s="6"/>
+    <row r="68" customFormat="1" s="6"/>
+    <row r="69" customFormat="1" s="6"/>
+    <row r="70" customFormat="1" s="6"/>
+    <row r="71" customFormat="1" s="6"/>
+    <row r="72" customFormat="1" s="6"/>
+    <row r="73" customFormat="1" s="6"/>
+    <row r="74" customFormat="1" s="6"/>
+    <row r="75" customFormat="1" s="6"/>
+    <row r="76" customFormat="1" s="6"/>
+    <row r="77" customFormat="1" s="6"/>
+    <row r="78" customFormat="1" s="6"/>
+    <row r="79" customFormat="1" s="6"/>
+    <row r="80" customFormat="1" s="6"/>
+    <row r="81" customFormat="1" s="6"/>
+    <row r="82" customFormat="1" s="6"/>
+    <row r="83" customFormat="1" s="6"/>
+    <row r="84" customFormat="1" s="6"/>
+    <row r="85" customFormat="1" s="6"/>
+    <row r="86" customFormat="1" s="6"/>
+    <row r="87" customFormat="1" s="6"/>
+    <row r="88" customFormat="1" s="6"/>
+    <row r="89" customFormat="1" s="6"/>
+    <row r="90" customFormat="1" s="6"/>
+    <row r="91" customFormat="1" s="6"/>
+    <row r="92" customFormat="1" s="6"/>
+    <row r="93" customFormat="1" s="6"/>
+    <row r="94" customFormat="1" s="6"/>
+    <row r="95" customFormat="1" s="6"/>
+    <row r="96" customFormat="1" s="6"/>
+    <row r="97" customFormat="1" s="6"/>
+    <row r="98" customFormat="1" s="6"/>
+    <row r="108" customFormat="1" s="6"/>
+    <row r="109" customFormat="1" s="6"/>
+    <row r="110" customFormat="1" s="6"/>
+    <row r="111" customFormat="1" s="6"/>
+    <row r="112" customFormat="1" s="6"/>
+    <row r="113" customFormat="1" s="6"/>
+    <row r="114" customFormat="1" s="6"/>
+    <row r="115" customHeight="1" ht="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
@@ -2557,7 +2559,8 @@
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2565,27 +2568,28 @@
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" ht="15">
       <c r="B2" s="52" t="s">
         <v>111</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
     </row>
-    <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" ht="15" customFormat="1" s="6">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customFormat="1" s="6">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" ht="15">
       <c r="C5" s="53" t="s">
         <v>30</v>
       </c>
@@ -2602,7 +2606,7 @@
       </c>
       <c r="L5" s="51"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="10"/>
       <c r="C6" s="9" t="str">
         <f>Member!B12</f>
@@ -2645,7 +2649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2961,7 +2965,7 @@
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="1" s="33">
       <c r="B16" s="45" t="s">
         <v>93</v>
       </c>
@@ -2987,11 +2991,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="1" s="33">
       <c r="B17" s="45"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3001,271 +3005,271 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28">
-        <f t="shared" ref="C19:E26" si="0">$K7*C8/C$28</f>
+        <f>$K7*C8/C$28</f>
         <v>0.1333333333333</v>
       </c>
       <c r="D19" s="28">
-        <f t="shared" si="0"/>
+        <f>$K7*D8/D$28</f>
         <v>0.2</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="0"/>
+        <f>$K7*E8/E$28</f>
         <v>0.24</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19:H27" si="1">$L7*F8/F$28</f>
+        <f>$L7*F8/F$28</f>
         <v>0.36</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" si="1"/>
+        <f>$L7*G8/G$28</f>
         <v>0.36</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <f>$L7*H8/H$28</f>
+        <v>0.225</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19:I27" si="2">$N$6*$M7*I8/I$28</f>
+        <f>$N$6*$M7*I8/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" si="0"/>
-        <v>4.4444444444400003E-2</v>
+        <f>$K8*C9/C$28</f>
+        <v>0.0444444444444</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="0"/>
+        <f>$K8*D9/D$28</f>
         <v>0.05</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="0"/>
+        <f>$K8*E9/E$28</f>
         <v>0.08</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="1"/>
+        <f>$L8*F9/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="1"/>
+        <f>$L8*G9/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="1"/>
+        <f>$L8*H9/H$28</f>
         <v>0.05</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M8*I9/I$28</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="28">
-        <f t="shared" si="0"/>
-        <v>4.4444444444400003E-2</v>
+        <f>$K9*C10/C$28</f>
+        <v>0.0444444444444</v>
       </c>
       <c r="D21" s="28">
-        <f t="shared" si="0"/>
-        <v>6.66666666667E-2</v>
+        <f>$K9*D10/D$28</f>
+        <v>0.0666666666667</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="0"/>
+        <f>$K9*E10/E$28</f>
         <v>0.12</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="1"/>
+        <f>$L9*F10/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="1"/>
+        <f>$L9*G10/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$L9*H10/H$28</f>
+        <v>0.075</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M9*I10/I$28</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="0"/>
+        <f>$K10*C11/C$28</f>
         <v>0.1333333333333</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="0"/>
+        <f>$K10*D11/D$28</f>
         <v>0.2</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="0"/>
+        <f>$K10*E11/E$28</f>
         <v>0.48</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="1"/>
+        <f>$L10*F11/F$28</f>
         <v>0.48</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="1"/>
+        <f>$L10*G11/G$28</f>
         <v>0.48</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="1"/>
+        <f>$L10*H11/H$28</f>
         <v>0.3</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M10*I11/I$28</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="28">
-        <f t="shared" si="0"/>
-        <v>3.3333333333299998E-2</v>
+        <f>$K11*C12/C$28</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="D23" s="28">
-        <f t="shared" si="0"/>
+        <f>$K11*D12/D$28</f>
         <v>0.05</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="0"/>
+        <f>$K11*E12/E$28</f>
         <v>0.12</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="1"/>
+        <f>$L11*F12/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="1"/>
+        <f>$L11*G12/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$L11*H12/H$28</f>
+        <v>0.075</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M11*I12/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="0"/>
+        <f>$K12*C13/C$28</f>
         <v>0.1</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="0"/>
+        <f>$K12*D13/D$28</f>
         <v>0.15</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="0"/>
+        <f>$K12*E13/E$28</f>
         <v>0.24</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="1"/>
+        <f>$L12*F13/F$28</f>
         <v>0.24</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="1"/>
+        <f>$L12*G13/G$28</f>
         <v>0.24</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" si="1"/>
+        <f>$L12*H13/H$28</f>
         <v>0.15</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M12*I13/I$28</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="0"/>
-        <v>3.3333333333299998E-2</v>
+        <f>$K13*C14/C$28</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="0"/>
+        <f>$K13*D14/D$28</f>
         <v>0.05</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="0"/>
+        <f>$K13*E14/E$28</f>
         <v>0.12</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="1"/>
+        <f>$L13*F14/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="1"/>
+        <f>$L13*G14/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="1"/>
+        <f>$L13*H14/H$28</f>
         <v>0.15</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M13*I14/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="28">
-        <f t="shared" si="0"/>
-        <v>8.8888888888899995E-2</v>
+        <f>$K14*C15/C$28</f>
+        <v>0.0888888888889</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="0"/>
+        <f>$K14*D15/D$28</f>
         <v>0.1166666666667</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <f>$K14*E15/E$28</f>
+        <v>0.28</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <f>$L14*F15/F$28</f>
+        <v>0.28</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <f>$L14*G15/G$28</f>
+        <v>0.28</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="1"/>
+        <f>$L14*H15/H$28</f>
         <v>0.125</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M14*I15/I$28</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="B27" s="12" t="s">
         <v>95</v>
       </c>
@@ -3282,24 +3286,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="1"/>
+        <f>$L15*F16/F$28</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="1"/>
+        <f>$L15*G16/G$28</f>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="1"/>
+        <f>$L15*H16/H$28</f>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M15*I16/I$28</f>
         <v>2</v>
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3333,44 +3337,44 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" s="49">
-        <f t="shared" ref="C29:I29" si="3">SUM(C19:C27)</f>
-        <v>0.74444444444440006</v>
+        <f>SUM(C19:C27)</f>
+        <v>0.7444444444444</v>
       </c>
       <c r="D29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(D19:D27)</f>
         <v>1.0833333333333</v>
       </c>
       <c r="E29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(E19:E27)</f>
         <v>1.68</v>
       </c>
       <c r="F29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(F19:F27)</f>
         <v>1.84</v>
       </c>
       <c r="G29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(G19:G27)</f>
         <v>1.84</v>
       </c>
       <c r="H29" s="49">
-        <f t="shared" si="3"/>
-        <v>1.1499999999999999</v>
+        <f>SUM(H19:H27)</f>
+        <v>1.15</v>
       </c>
       <c r="I29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(I19:I27)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" s="28">
         <f>SUM(C19:C27)*Member!$D12</f>
-        <v>0.74444444444440006</v>
+        <v>0.7444444444444</v>
       </c>
       <c r="D30" s="28">
         <f>SUM(D19:D27)*Member!$D13</f>
-        <v>2.1666666666666998</v>
+        <v>2.1666666666667</v>
       </c>
       <c r="E30" s="28">
         <f>SUM(E19:E27)*Member!$D14</f>
@@ -3378,7 +3382,7 @@
       </c>
       <c r="F30" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>7.36</v>
+        <v>0</v>
       </c>
       <c r="G30" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
@@ -3390,11 +3394,11 @@
       </c>
       <c r="I30" s="28">
         <f>SUM(I19:I27)*Member!D18</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J30" s="40">
         <f>SUM(C30:I30)</f>
-        <v>13.631111111111</v>
+        <v>35.271111111111</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA461C26-018A-48C1-A7BE-C581AA02E6E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13A7B2-273E-415E-98F1-AA6FB707572E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Member" sheetId="1" r:id="rId1"/>
     <sheet name="Characteristik analyse" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
   <si>
     <t>gold</t>
   </si>
@@ -355,13 +355,19 @@
     <t>member rating</t>
   </si>
   <si>
-    <t>v1.13</t>
-  </si>
-  <si>
     <t>Hired sword eq rating</t>
   </si>
   <si>
     <t>Characteristic analysis</t>
+  </si>
+  <si>
+    <t>v1.14</t>
+  </si>
+  <si>
+    <t>UpKeep 18.11.2018</t>
+  </si>
+  <si>
+    <t>Gold 18.11.2018</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -444,6 +450,12 @@
       <i/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -526,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -585,6 +597,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,6 +616,43 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -651,43 +702,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -702,16 +716,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B22:R37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ausrüstung gesamt"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SP"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="gold/stück"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="8">
       <calculatedColumnFormula>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="black orks"/>
@@ -720,12 +734,12 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="shootaz"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="savage"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="troll"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="7">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="4">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -998,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0" topLeftCell="F15">
-      <selection activeCell="F28" sqref="F28" activeCellId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1011,34 +1025,31 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1048,22 +1059,22 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43417</v>
+        <v>43423</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
       </c>
       <c r="H2" s="35">
         <f>1.25+J41*G41+J42*G42</f>
-        <v>1.25</v>
+        <v>1.875</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" ht="18" customFormat="1" s="6">
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
@@ -1077,95 +1088,113 @@
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
-    </row>
-    <row r="4">
+      <c r="M3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G4" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="35">
-        <f>5*(D19)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+10+G41*C41+G41*D41+G42*C42+G42*D42</f>
-        <v>96</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5">
+        <f>5*(D20)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+I4+J4</f>
+        <v>149</v>
+      </c>
+      <c r="I4" s="33">
+        <v>10</v>
+      </c>
+      <c r="J4" s="33">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4">
+        <f>15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <v>500</v>
+        <f>500+M4</f>
+        <v>700</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>71</v>
       </c>
       <c r="H5" s="35">
         <f>ROUNDUP((G41+G42+D19)/4,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <f>F19+Member!O38+G41*E41+G42*E42</f>
-        <v>495</v>
+        <f>F19+Member!O38+G41*E41+G42*E42+N4</f>
+        <v>693</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
-        <f>'Characteristik analyse'!J30+I41*G41+G42</f>
-        <v>35.271111111111</v>
+        <f>'Characteristik analyse'!J31+I41*G41+G42</f>
+        <v>44.714444444444446</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H7" s="37">
         <f>H41*G41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" s="6">
+    <row r="9" spans="1:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>11727.644444444</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" s="6"/>
-    <row r="11">
+        <v>55334.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1182,8 +1211,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1199,12 +1228,12 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <f>D12*C12</f>
+        <f t="shared" ref="F12:F18" si="0">D12*C12</f>
         <v>90</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="50"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1218,12 +1247,12 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="50"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1237,12 +1266,12 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="50" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -1252,18 +1281,18 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
-        <f>D15*C15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="50"/>
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="52"/>
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1277,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17">
-      <c r="A17" s="50"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1297,12 +1326,12 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>D17*C17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="50"/>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1316,53 +1345,57 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f>D18*C18</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
-    <row r="19" ht="15">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(D12:D18)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" s="6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
+      <c r="D20" s="51">
+        <f>D19+SUM(G41:G45)</f>
+        <v>12</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="H20" s="51" t="s">
+      <c r="H20" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-    </row>
-    <row r="21" ht="15">
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="51" t="s">
+      <c r="H21" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51" t="s">
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-    </row>
-    <row r="22" customFormat="1" s="6">
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+    </row>
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1415,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="1" s="33">
+    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="33" t="s">
         <v>86</v>
       </c>
@@ -1443,12 +1476,13 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" s="33">
         <v>0</v>
       </c>
       <c r="M23" s="33">
+        <f>D17</f>
         <v>0</v>
       </c>
       <c r="N23" s="33">
@@ -1464,10 +1498,10 @@
       </c>
       <c r="R23" s="43">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
@@ -1492,7 +1526,7 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1505,7 +1539,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1515,10 +1549,10 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>85</v>
       </c>
@@ -1549,6 +1583,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="6">
+        <f>D17</f>
         <v>0</v>
       </c>
       <c r="N25" s="6">
@@ -1569,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="1" s="6">
+    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
@@ -1619,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="1" s="6">
+    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
@@ -1648,7 +1683,7 @@
       <c r="L27" s="6">
         <v>0</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="33">
         <v>0</v>
       </c>
       <c r="N27" s="6">
@@ -1669,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="1" s="6">
+    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>82</v>
       </c>
@@ -1719,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" s="6">
+    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
@@ -1769,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="1" s="6">
+    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
@@ -1822,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="1" s="6">
+    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -1875,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="1" s="6">
+    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="1" s="6">
+    <row r="33" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
@@ -1975,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" s="6">
+    <row r="34" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="1" s="6">
+    <row r="35" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
@@ -2072,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="1" s="6">
+    <row r="36" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" s="6">
+    <row r="37" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2173,50 +2208,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" s="6">
+    <row r="38" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="3">
-        <f>H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
+        <f t="shared" ref="H38:N38" si="1">H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
         <v>15</v>
       </c>
       <c r="I38" s="3">
-        <f>I24*$G24+I25*$G25+I26*$G26+I27*$G27+I28*$G28+I29*$G29+I30*$G30+I31*$G31+I32*$G32+I33*$G33+I34*$G34+I35*$G35+I36*$G36+I37*$G37</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f>J24*$G24+J25*$G25+J26*$G26+J27*$G27+J28*$G28+J29*$G29+J30*$G30+J31*$G31+J32*$G32+J33*$G33+J34*$G34+J35*$G35+J36*$G36+J37*$G37</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K38" s="3">
-        <f>K24*$G24+K25*$G25+K26*$G26+K27*$G27+K28*$G28+K29*$G29+K30*$G30+K31*$G31+K32*$G32+K33*$G33+K34*$G34+K35*$G35+K36*$G36+K37*$G37</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L38" s="3">
-        <f>L24*$G24+L25*$G25+L26*$G26+L27*$G27+L28*$G28+L29*$G29+L30*$G30+L31*$G31+L32*$G32+L33*$G33+L34*$G34+L35*$G35+L36*$G36+L37*$G37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f>M24*$G24+M25*$G25+M26*$G26+M27*$G27+M28*$G28+M29*$G29+M30*$G30+M31*$G31+M32*$G32+M33*$G33+M34*$G34+M35*$G35+M36*$G36+M37*$G37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f>N24*$G24+N25*$G25+N26*$G26+N27*$G27+N28*$G28+N29*$G29+N30*$G30+N31*$G31+N32*$G32+N33*$G33+N34*$G34+N35*$G35+N36*$G36+N37*$G37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q39" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -2252,7 +2287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="1" s="6">
+    <row r="41" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>25</v>
       </c>
       <c r="G41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="6">
         <f>Q36+Q34+Q29+Q37</f>
@@ -2278,7 +2313,7 @@
       </c>
       <c r="I41" s="28">
         <f>SUM('Characteristik analyse'!D19:D27)</f>
-        <v>1.0833333333333</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="J41" s="6">
         <v>0.5</v>
@@ -2288,10 +2323,10 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
@@ -2309,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="6">
         <v>0</v>
@@ -2321,76 +2356,76 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" customFormat="1" s="6"/>
-    <row r="44" customFormat="1" s="6"/>
-    <row r="45" customFormat="1" s="6"/>
-    <row r="46" customFormat="1" s="6"/>
-    <row r="47" customFormat="1" s="6"/>
-    <row r="48" customFormat="1" s="6"/>
-    <row r="49" customFormat="1" s="6"/>
-    <row r="50" customFormat="1" s="6">
+    <row r="43" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S50" s="1"/>
     </row>
-    <row r="51" customFormat="1" s="6">
+    <row r="51" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P52" s="1"/>
     </row>
-    <row r="53" customFormat="1" s="6"/>
-    <row r="54" customFormat="1" s="6"/>
-    <row r="55" customFormat="1" s="6"/>
-    <row r="56" customFormat="1" s="6"/>
-    <row r="57" customFormat="1" s="6"/>
-    <row r="58" customFormat="1" s="6"/>
-    <row r="59" customFormat="1" s="6"/>
-    <row r="60" customFormat="1" s="6"/>
-    <row r="61" customFormat="1" s="6"/>
-    <row r="62" customFormat="1" s="6"/>
-    <row r="63" customFormat="1" s="6"/>
-    <row r="64" customFormat="1" s="6"/>
-    <row r="65" customFormat="1" s="6"/>
-    <row r="66" customFormat="1" s="6"/>
-    <row r="67" customFormat="1" s="6"/>
-    <row r="68" customFormat="1" s="6"/>
-    <row r="69" customFormat="1" s="6"/>
-    <row r="70" customFormat="1" s="6"/>
-    <row r="71" customFormat="1" s="6"/>
-    <row r="72" customFormat="1" s="6"/>
-    <row r="73" customFormat="1" s="6"/>
-    <row r="74" customFormat="1" s="6"/>
-    <row r="75" customFormat="1" s="6"/>
-    <row r="76" customFormat="1" s="6"/>
-    <row r="77" customFormat="1" s="6"/>
-    <row r="78" customFormat="1" s="6"/>
-    <row r="79" customFormat="1" s="6"/>
-    <row r="80" customFormat="1" s="6"/>
-    <row r="81" customFormat="1" s="6"/>
-    <row r="82" customFormat="1" s="6"/>
-    <row r="83" customFormat="1" s="6"/>
-    <row r="84" customFormat="1" s="6"/>
-    <row r="85" customFormat="1" s="6"/>
-    <row r="86" customFormat="1" s="6"/>
-    <row r="87" customFormat="1" s="6"/>
-    <row r="88" customFormat="1" s="6"/>
-    <row r="89" customFormat="1" s="6"/>
-    <row r="90" customFormat="1" s="6"/>
-    <row r="91" customFormat="1" s="6"/>
-    <row r="92" customFormat="1" s="6"/>
-    <row r="93" customFormat="1" s="6"/>
-    <row r="94" customFormat="1" s="6"/>
-    <row r="95" customFormat="1" s="6"/>
-    <row r="96" customFormat="1" s="6"/>
-    <row r="97" customFormat="1" s="6"/>
-    <row r="98" customFormat="1" s="6"/>
-    <row r="108" customFormat="1" s="6"/>
-    <row r="109" customFormat="1" s="6"/>
-    <row r="110" customFormat="1" s="6"/>
-    <row r="111" customFormat="1" s="6"/>
-    <row r="112" customFormat="1" s="6"/>
-    <row r="113" customFormat="1" s="6"/>
-    <row r="114" customFormat="1" s="6"/>
-    <row r="115" customHeight="1" ht="12"/>
+    <row r="53" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
@@ -2400,7 +2435,7 @@
     <mergeCell ref="K21:N21"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="12" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="54" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2489,17 +2524,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2549,18 +2584,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:N30"/>
+  <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2568,45 +2602,44 @@
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15">
-      <c r="B2" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-    </row>
-    <row r="3" ht="15" customFormat="1" s="6">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" ht="15" customFormat="1" s="6">
+    <row r="4" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" ht="15">
-      <c r="C5" s="53" t="s">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="K5" s="51" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="K5" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="51"/>
-    </row>
-    <row r="6">
+      <c r="L5" s="53"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="9" t="str">
         <f>Member!B12</f>
@@ -2649,7 +2682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2684,7 +2717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2719,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2754,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2789,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2859,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -2894,7 +2927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2929,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2965,7 +2998,7 @@
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" customFormat="1" s="33">
+    <row r="16" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>93</v>
       </c>
@@ -2991,11 +3024,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="1" s="33">
+    <row r="17" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3005,277 +3038,277 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28">
-        <f>$K7*C8/C$28</f>
-        <v>0.1333333333333</v>
+        <f t="shared" ref="C19:E26" si="0">$K7*C8/C$28</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D19" s="28">
-        <f>$K7*D8/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E19" s="28">
-        <f>$K7*E8/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F19" s="28">
-        <f>$L7*F8/F$28</f>
+        <f t="shared" ref="F19:H27" si="1">$L7*F8/F$28</f>
         <v>0.36</v>
       </c>
       <c r="G19" s="28">
-        <f>$L7*G8/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="H19" s="28">
-        <f>$L7*H8/H$28</f>
-        <v>0.225</v>
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I19" s="28">
-        <f>$N$6*$M7*I8/I$28</f>
+        <f t="shared" ref="I19:I27" si="2">$N$6*$M7*I8/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="28">
-        <f>$K8*C9/C$28</f>
-        <v>0.0444444444444</v>
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="D20" s="28">
-        <f>$K8*D9/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E20" s="28">
-        <f>$K8*E9/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="F20" s="28">
-        <f>$L8*F9/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G20" s="28">
-        <f>$L8*G9/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H20" s="28">
-        <f>$L8*H9/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I20" s="28">
-        <f>$N$6*$M8*I9/I$28</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="28">
-        <f>$K9*C10/C$28</f>
-        <v>0.0444444444444</v>
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="D21" s="28">
-        <f>$K9*D10/D$28</f>
-        <v>0.0666666666667</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E21" s="28">
-        <f>$K9*E10/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F21" s="28">
-        <f>$L9*F10/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G21" s="28">
-        <f>$L9*G10/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H21" s="28">
-        <f>$L9*H10/H$28</f>
-        <v>0.075</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I21" s="28">
-        <f>$N$6*$M9*I10/I$28</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="28">
-        <f>$K10*C11/C$28</f>
-        <v>0.1333333333333</v>
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D22" s="28">
-        <f>$K10*D11/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E22" s="28">
-        <f>$K10*E11/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="F22" s="28">
-        <f>$L10*F11/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="G22" s="28">
-        <f>$L10*G11/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="H22" s="28">
-        <f>$L10*H11/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I22" s="28">
-        <f>$N$6*$M10*I11/I$28</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="28">
-        <f>$K11*C12/C$28</f>
-        <v>0.0333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="D23" s="28">
-        <f>$K11*D12/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E23" s="28">
-        <f>$K11*E12/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F23" s="28">
-        <f>$L11*F12/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G23" s="28">
-        <f>$L11*G12/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H23" s="28">
-        <f>$L11*H12/H$28</f>
-        <v>0.075</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I23" s="28">
-        <f>$N$6*$M11*I12/I$28</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="28">
-        <f>$K12*C13/C$28</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D24" s="28">
-        <f>$K12*D13/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="E24" s="28">
-        <f>$K12*E13/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F24" s="28">
-        <f>$L12*F13/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="G24" s="28">
-        <f>$L12*G13/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="H24" s="28">
-        <f>$L12*H13/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="I24" s="28">
-        <f>$N$6*$M12*I13/I$28</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="28">
-        <f>$K13*C14/C$28</f>
-        <v>0.0333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="D25" s="28">
-        <f>$K13*D14/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E25" s="28">
-        <f>$K13*E14/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F25" s="28">
-        <f>$L13*F14/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G25" s="28">
-        <f>$L13*G14/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H25" s="28">
-        <f>$L13*H14/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="I25" s="28">
-        <f>$N$6*$M13*I14/I$28</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="28">
-        <f>$K14*C15/C$28</f>
-        <v>0.0888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="D26" s="28">
-        <f>$K14*D15/D$28</f>
-        <v>0.1166666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="E26" s="28">
-        <f>$K14*E15/E$28</f>
-        <v>0.28</v>
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F26" s="28">
-        <f>$L14*F15/F$28</f>
-        <v>0.28</v>
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G26" s="28">
-        <f>$L14*G15/G$28</f>
-        <v>0.28</v>
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H26" s="28">
-        <f>$L14*H15/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="I26" s="28">
-        <f>$N$6*$M14*I15/I$28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="28">
         <f>$K15*C16/C28</f>
-        <v>0.1333333333333</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D27" s="28">
         <f>$K15*D16/D28</f>
@@ -3286,24 +3319,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f>$L15*F16/F$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>$L15*G16/G$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f>$L15*H16/H$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f>$N$6*$M15*I16/I$28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3337,68 +3370,98 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C29" s="49">
-        <f>SUM(C19:C27)</f>
-        <v>0.7444444444444</v>
+        <f t="shared" ref="C29:I29" si="3">SUM(C19:C27)</f>
+        <v>0.74444444444444446</v>
       </c>
       <c r="D29" s="49">
-        <f>SUM(D19:D27)</f>
-        <v>1.0833333333333</v>
+        <f t="shared" si="3"/>
+        <v>1.0833333333333335</v>
       </c>
       <c r="E29" s="49">
-        <f>SUM(E19:E27)</f>
+        <f t="shared" si="3"/>
         <v>1.68</v>
       </c>
       <c r="F29" s="49">
-        <f>SUM(F19:F27)</f>
+        <f t="shared" si="3"/>
         <v>1.84</v>
       </c>
       <c r="G29" s="49">
-        <f>SUM(G19:G27)</f>
+        <f t="shared" si="3"/>
         <v>1.84</v>
       </c>
       <c r="H29" s="49">
-        <f>SUM(H19:H27)</f>
-        <v>1.15</v>
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I29" s="49">
-        <f>SUM(I19:I27)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30">
-      <c r="C30" s="28">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="50">
+        <f>Member!D12</f>
+        <v>1</v>
+      </c>
+      <c r="D30" s="50">
+        <f>Member!D13</f>
+        <v>2</v>
+      </c>
+      <c r="E30" s="50">
+        <f>Member!D14</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="50">
+        <f>Member!D15</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="50">
+        <f>Member!D16</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="50">
+        <f>Member!D17</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="50">
+        <f>Member!D12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="28">
         <f>SUM(C19:C27)*Member!$D12</f>
-        <v>0.7444444444444</v>
-      </c>
-      <c r="D30" s="28">
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="D31" s="28">
         <f>SUM(D19:D27)*Member!$D13</f>
-        <v>2.1666666666667</v>
-      </c>
-      <c r="E30" s="28">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="E31" s="28">
         <f>SUM(E19:E27)*Member!$D14</f>
         <v>3.36</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="28">
+        <v>7.36</v>
+      </c>
+      <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
         <v>0</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H31" s="28">
         <f>SUM(H19:H27)*Member!$D17</f>
         <v>0</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I31" s="28">
         <f>SUM(I19:I27)*Member!D18</f>
         <v>29</v>
       </c>
-      <c r="J30" s="40">
-        <f>SUM(C30:I30)</f>
-        <v>35.271111111111</v>
+      <c r="J31" s="40">
+        <f>SUM(C31:I31)</f>
+        <v>42.63111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>gold</t>
   </si>
@@ -368,16 +368,41 @@
   </si>
   <si>
     <t>Gold 18.11.2018</t>
+  </si>
+  <si>
+    <t>UpKeep</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>up keep</t>
+  </si>
+  <si>
+    <t>boss cost</t>
+  </si>
+  <si>
+    <t>hired sword</t>
+  </si>
+  <si>
+    <t>gained xp 18.11.2018</t>
+  </si>
+  <si>
+    <t>wb rating add</t>
+  </si>
+  <si>
+    <t>wb rating addition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -459,6 +484,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -468,7 +498,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -534,11 +564,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="medium"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="none"/>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,6 +656,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1012,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0" topLeftCell="G1">
+      <selection activeCell="G41" sqref="G41" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,20 +1100,23 @@
     <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" ht="18">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +1126,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1072,7 +1139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" ht="12" customFormat="1" s="6">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1087,37 +1154,39 @@
         <v>0</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="M3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M3" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="N3" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="G4" s="36" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="35">
-        <f>5*(D20)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+I4+J4</f>
+        <f>5*(D20)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+H19+O4</f>
         <v>149</v>
       </c>
-      <c r="I4" s="33">
-        <v>10</v>
-      </c>
-      <c r="J4" s="33">
-        <v>10</v>
-      </c>
-      <c r="M4">
+      <c r="L4" s="66">
+        <v>43422</v>
+      </c>
+      <c r="M4" s="6">
         <v>200</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <f>15</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="O4" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,8 +1203,13 @@
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="L5" s="68"/>
+      <c r="N5" s="6">
+        <f>G19*D18+F41*G41+F42*G42</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1148,12 +1222,12 @@
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
-        <v>44.714444444444446</v>
+        <v>44.714444444444</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
@@ -1186,15 +1260,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="1" s="6">
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
         <v>55334.125</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="1" s="6"/>
+    <row r="11">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1210,8 +1284,14 @@
       <c r="F11" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="52" t="s">
         <v>30</v>
       </c>
@@ -1228,11 +1308,17 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F18" si="0">D12*C12</f>
+        <f>D12*C12</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="52"/>
       <c r="B13" t="s">
         <v>54</v>
@@ -1247,11 +1333,14 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f>D13*C13</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="52"/>
       <c r="B14" t="s">
         <v>55</v>
@@ -1266,11 +1355,14 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>D14*C14</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="52" t="s">
         <v>31</v>
       </c>
@@ -1287,11 +1379,14 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>D15*C15</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="52"/>
       <c r="B16" t="s">
         <v>58</v>
@@ -1306,12 +1401,15 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f>D16*C16</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="52"/>
       <c r="B17" t="s">
         <v>57</v>
@@ -1326,11 +1424,14 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <f>D17*C17</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="52"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
@@ -1345,11 +1446,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
+        <f>D18*C18</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="12">
       <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
@@ -1362,8 +1466,16 @@
         <f>SUM(F12:F18)</f>
         <v>560</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G19" s="59">
+        <f>SUM(G12:G18)</f>
+        <v>15</v>
+      </c>
+      <c r="H19" s="59">
+        <f>SUM(H12:H18)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" s="6">
       <c r="A20" s="14"/>
       <c r="D20" s="51">
         <f>D19+SUM(G41:G45)</f>
@@ -1380,7 +1492,7 @@
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="H21" s="53" t="s">
@@ -1395,7 +1507,7 @@
       <c r="M21" s="53"/>
       <c r="N21" s="53"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="1" s="6">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1448,7 +1560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="1" s="33">
       <c r="B23" s="33" t="s">
         <v>86</v>
       </c>
@@ -1479,6 +1591,7 @@
         <v>4</v>
       </c>
       <c r="L23" s="33">
+        <f>D16</f>
         <v>0</v>
       </c>
       <c r="M23" s="33">
@@ -1501,7 +1614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="1" s="6">
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
@@ -1532,6 +1645,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="6">
+        <f>M23</f>
         <v>0</v>
       </c>
       <c r="N24" s="6">
@@ -1552,7 +1666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="1" s="6">
       <c r="B25" s="6" t="s">
         <v>85</v>
       </c>
@@ -1583,7 +1697,6 @@
         <v>0</v>
       </c>
       <c r="M25" s="6">
-        <f>D17</f>
         <v>0</v>
       </c>
       <c r="N25" s="6">
@@ -1604,7 +1717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="1" s="6">
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
@@ -1654,7 +1767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="1" s="6">
       <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
@@ -1704,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" customFormat="1" s="6">
       <c r="B28" s="6" t="s">
         <v>82</v>
       </c>
@@ -1754,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" customFormat="1" s="6">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
@@ -1804,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" customFormat="1" s="6">
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
@@ -1834,6 +1947,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="6">
+        <f>L23</f>
         <v>0</v>
       </c>
       <c r="M30" s="6">
@@ -1857,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" customFormat="1" s="6">
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -1910,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" customFormat="1" s="6">
       <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
@@ -1960,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" customFormat="1" s="6">
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
@@ -2010,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" customFormat="1" s="6">
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -2057,7 +2171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" customFormat="1" s="6">
       <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
@@ -2107,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" customFormat="1" s="6">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -2158,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" customFormat="1" s="6">
       <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2208,33 +2322,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" customFormat="1" s="6">
       <c r="H38" s="3">
-        <f t="shared" ref="H38:N38" si="1">H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
+        <f>H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
         <v>15</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="1"/>
+        <f>I24*$G24+I25*$G25+I26*$G26+I27*$G27+I28*$G28+I29*$G29+I30*$G30+I31*$G31+I32*$G32+I33*$G33+I34*$G34+I35*$G35+I36*$G36+I37*$G37</f>
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="1"/>
+        <f>J24*$G24+J25*$G25+J26*$G26+J27*$G27+J28*$G28+J29*$G29+J30*$G30+J31*$G31+J32*$G32+J33*$G33+J34*$G34+J35*$G35+J36*$G36+J37*$G37</f>
         <v>10</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="1"/>
+        <f>K24*$G24+K25*$G25+K26*$G26+K27*$G27+K28*$G28+K29*$G29+K30*$G30+K31*$G31+K32*$G32+K33*$G33+K34*$G34+K35*$G35+K36*$G36+K37*$G37</f>
         <v>8</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="1"/>
+        <f>L24*$G24+L25*$G25+L26*$G26+L27*$G27+L28*$G28+L29*$G29+L30*$G30+L31*$G31+L32*$G32+L33*$G33+L34*$G34+L35*$G35+L36*$G36+L37*$G37</f>
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="1"/>
+        <f>M24*$G24+M25*$G25+M26*$G26+M27*$G27+M28*$G28+M29*$G29+M30*$G30+M31*$G31+M32*$G32+M33*$G33+M34*$G34+M35*$G35+M36*$G36+M37*$G37</f>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="1"/>
+        <f>N24*$G24+N25*$G25+N26*$G26+N27*$G27+N28*$G28+N29*$G29+N30*$G30+N31*$G31+N32*$G32+N33*$G33+N34*$G34+N35*$G35+N36*$G36+N37*$G37</f>
         <v>0</v>
       </c>
       <c r="O38" s="36">
@@ -2242,7 +2356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" customFormat="1" s="6">
       <c r="Q39" s="6" t="s">
         <v>92</v>
       </c>
@@ -2251,7 +2365,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" customFormat="1" s="6">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -2287,7 +2401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" customFormat="1" s="6">
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2313,7 +2427,7 @@
       </c>
       <c r="I41" s="28">
         <f>SUM('Characteristik analyse'!D19:D27)</f>
-        <v>1.0833333333333335</v>
+        <v>1.0833333333333</v>
       </c>
       <c r="J41" s="6">
         <v>0.5</v>
@@ -2326,7 +2440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" customFormat="1" s="6">
       <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
@@ -2356,76 +2470,76 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" customFormat="1" s="6"/>
+    <row r="44" customFormat="1" s="6"/>
+    <row r="45" customFormat="1" s="6"/>
+    <row r="46" customFormat="1" s="6"/>
+    <row r="47" customFormat="1" s="6"/>
+    <row r="48" customFormat="1" s="6"/>
+    <row r="49" customFormat="1" s="6"/>
+    <row r="50" customFormat="1" s="6">
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" customFormat="1" s="6">
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="16:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" s="6"/>
+    <row r="54" customFormat="1" s="6"/>
+    <row r="55" customFormat="1" s="6"/>
+    <row r="56" customFormat="1" s="6"/>
+    <row r="57" customFormat="1" s="6"/>
+    <row r="58" customFormat="1" s="6"/>
+    <row r="59" customFormat="1" s="6"/>
+    <row r="60" customFormat="1" s="6"/>
+    <row r="61" customFormat="1" s="6"/>
+    <row r="62" customFormat="1" s="6"/>
+    <row r="63" customFormat="1" s="6"/>
+    <row r="64" customFormat="1" s="6"/>
+    <row r="65" customFormat="1" s="6"/>
+    <row r="66" customFormat="1" s="6"/>
+    <row r="67" customFormat="1" s="6"/>
+    <row r="68" customFormat="1" s="6"/>
+    <row r="69" customFormat="1" s="6"/>
+    <row r="70" customFormat="1" s="6"/>
+    <row r="71" customFormat="1" s="6"/>
+    <row r="72" customFormat="1" s="6"/>
+    <row r="73" customFormat="1" s="6"/>
+    <row r="74" customFormat="1" s="6"/>
+    <row r="75" customFormat="1" s="6"/>
+    <row r="76" customFormat="1" s="6"/>
+    <row r="77" customFormat="1" s="6"/>
+    <row r="78" customFormat="1" s="6"/>
+    <row r="79" customFormat="1" s="6"/>
+    <row r="80" customFormat="1" s="6"/>
+    <row r="81" customFormat="1" s="6"/>
+    <row r="82" customFormat="1" s="6"/>
+    <row r="83" customFormat="1" s="6"/>
+    <row r="84" customFormat="1" s="6"/>
+    <row r="85" customFormat="1" s="6"/>
+    <row r="86" customFormat="1" s="6"/>
+    <row r="87" customFormat="1" s="6"/>
+    <row r="88" customFormat="1" s="6"/>
+    <row r="89" customFormat="1" s="6"/>
+    <row r="90" customFormat="1" s="6"/>
+    <row r="91" customFormat="1" s="6"/>
+    <row r="92" customFormat="1" s="6"/>
+    <row r="93" customFormat="1" s="6"/>
+    <row r="94" customFormat="1" s="6"/>
+    <row r="95" customFormat="1" s="6"/>
+    <row r="96" customFormat="1" s="6"/>
+    <row r="97" customFormat="1" s="6"/>
+    <row r="98" customFormat="1" s="6"/>
+    <row r="108" customFormat="1" s="6"/>
+    <row r="109" customFormat="1" s="6"/>
+    <row r="110" customFormat="1" s="6"/>
+    <row r="111" customFormat="1" s="6"/>
+    <row r="112" customFormat="1" s="6"/>
+    <row r="113" customFormat="1" s="6"/>
+    <row r="114" customFormat="1" s="6"/>
+    <row r="115" customHeight="1" ht="12"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
@@ -2435,11 +2549,23 @@
     <mergeCell ref="K21:N21"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="3" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="55" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2451,7 +2577,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
+  <conditionalFormatting sqref="G24:G32">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2463,8 +2601,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G32">
-    <cfRule type="colorScale" priority="55">
+  <conditionalFormatting sqref="G33:G37">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:O37">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2476,43 +2626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:O37">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G37">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:O37">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O37">
-    <cfRule type="colorScale" priority="59">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2524,21 +2638,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G37">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2550,20 +2676,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G37">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q23:Q37">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2594,7 +2708,8 @@
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2602,27 +2717,28 @@
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="54" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="54"/>
     </row>
-    <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" customFormat="1" s="6">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="1" s="6">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="C5" s="55" t="s">
         <v>30</v>
       </c>
@@ -2639,7 +2755,7 @@
       </c>
       <c r="L5" s="53"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="B6" s="10"/>
       <c r="C6" s="9" t="str">
         <f>Member!B12</f>
@@ -2682,7 +2798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2717,7 +2833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2752,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2787,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2822,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -2857,7 +2973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2892,7 +3008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -2927,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2962,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2998,7 +3114,7 @@
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="1" s="33">
       <c r="B16" s="45" t="s">
         <v>93</v>
       </c>
@@ -3024,11 +3140,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="1" s="33">
       <c r="B17" s="45"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3038,277 +3154,277 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28">
-        <f t="shared" ref="C19:E26" si="0">$K7*C8/C$28</f>
-        <v>0.13333333333333333</v>
+        <f>$K7*C8/C$28</f>
+        <v>0.1333333333333</v>
       </c>
       <c r="D19" s="28">
-        <f t="shared" si="0"/>
+        <f>$K7*D8/D$28</f>
         <v>0.2</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="0"/>
+        <f>$K7*E8/E$28</f>
         <v>0.24</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19:H27" si="1">$L7*F8/F$28</f>
+        <f>$L7*F8/F$28</f>
         <v>0.36</v>
       </c>
       <c r="G19" s="28">
-        <f t="shared" si="1"/>
+        <f>$L7*G8/G$28</f>
         <v>0.36</v>
       </c>
       <c r="H19" s="28">
-        <f t="shared" si="1"/>
-        <v>0.22500000000000001</v>
+        <f>$L7*H8/H$28</f>
+        <v>0.225</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19:I27" si="2">$N$6*$M7*I8/I$28</f>
+        <f>$N$6*$M7*I8/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="28">
-        <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <f>$K8*C9/C$28</f>
+        <v>0.0444444444444</v>
       </c>
       <c r="D20" s="28">
-        <f t="shared" si="0"/>
+        <f>$K8*D9/D$28</f>
         <v>0.05</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="0"/>
+        <f>$K8*E9/E$28</f>
         <v>0.08</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" si="1"/>
+        <f>$L8*F9/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G20" s="28">
-        <f t="shared" si="1"/>
+        <f>$L8*G9/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H20" s="28">
-        <f t="shared" si="1"/>
+        <f>$L8*H9/H$28</f>
         <v>0.05</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M8*I9/I$28</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="28">
-        <f t="shared" si="0"/>
-        <v>4.4444444444444446E-2</v>
+        <f>$K9*C10/C$28</f>
+        <v>0.0444444444444</v>
       </c>
       <c r="D21" s="28">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <f>$K9*D10/D$28</f>
+        <v>0.0666666666667</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="0"/>
+        <f>$K9*E10/E$28</f>
         <v>0.12</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="1"/>
+        <f>$L9*F10/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G21" s="28">
-        <f t="shared" si="1"/>
+        <f>$L9*G10/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H21" s="28">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$L9*H10/H$28</f>
+        <v>0.075</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M9*I10/I$28</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="28">
-        <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <f>$K10*C11/C$28</f>
+        <v>0.1333333333333</v>
       </c>
       <c r="D22" s="28">
-        <f t="shared" si="0"/>
+        <f>$K10*D11/D$28</f>
         <v>0.2</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="0"/>
+        <f>$K10*E11/E$28</f>
         <v>0.48</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="1"/>
+        <f>$L10*F11/F$28</f>
         <v>0.48</v>
       </c>
       <c r="G22" s="28">
-        <f t="shared" si="1"/>
+        <f>$L10*G11/G$28</f>
         <v>0.48</v>
       </c>
       <c r="H22" s="28">
-        <f t="shared" si="1"/>
+        <f>$L10*H11/H$28</f>
         <v>0.3</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M10*I11/I$28</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="28">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>$K11*C12/C$28</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="D23" s="28">
-        <f t="shared" si="0"/>
+        <f>$K11*D12/D$28</f>
         <v>0.05</v>
       </c>
       <c r="E23" s="28">
-        <f t="shared" si="0"/>
+        <f>$K11*E12/E$28</f>
         <v>0.12</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" si="1"/>
+        <f>$L11*F12/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G23" s="28">
-        <f t="shared" si="1"/>
+        <f>$L11*G12/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H23" s="28">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
+        <f>$L11*H12/H$28</f>
+        <v>0.075</v>
       </c>
       <c r="I23" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M11*I12/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="0"/>
+        <f>$K12*C13/C$28</f>
         <v>0.1</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="0"/>
+        <f>$K12*D13/D$28</f>
         <v>0.15</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="0"/>
+        <f>$K12*E13/E$28</f>
         <v>0.24</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="1"/>
+        <f>$L12*F13/F$28</f>
         <v>0.24</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="1"/>
+        <f>$L12*G13/G$28</f>
         <v>0.24</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" si="1"/>
+        <f>$L12*H13/H$28</f>
         <v>0.15</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M12*I13/I$28</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>$K13*C14/C$28</f>
+        <v>0.0333333333333</v>
       </c>
       <c r="D25" s="28">
-        <f t="shared" si="0"/>
+        <f>$K13*D14/D$28</f>
         <v>0.05</v>
       </c>
       <c r="E25" s="28">
-        <f t="shared" si="0"/>
+        <f>$K13*E14/E$28</f>
         <v>0.12</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="1"/>
+        <f>$L13*F14/F$28</f>
         <v>0.12</v>
       </c>
       <c r="G25" s="28">
-        <f t="shared" si="1"/>
+        <f>$L13*G14/G$28</f>
         <v>0.12</v>
       </c>
       <c r="H25" s="28">
-        <f t="shared" si="1"/>
+        <f>$L13*H14/H$28</f>
         <v>0.15</v>
       </c>
       <c r="I25" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M13*I14/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="28">
-        <f t="shared" si="0"/>
-        <v>8.8888888888888892E-2</v>
+        <f>$K14*C15/C$28</f>
+        <v>0.0888888888889</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="0"/>
-        <v>0.11666666666666667</v>
+        <f>$K14*D15/D$28</f>
+        <v>0.1166666666667</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <f>$K14*E15/E$28</f>
+        <v>0.28</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <f>$L14*F15/F$28</f>
+        <v>0.28</v>
       </c>
       <c r="G26" s="28">
-        <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
+        <f>$L14*G15/G$28</f>
+        <v>0.28</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="1"/>
+        <f>$L14*H15/H$28</f>
         <v>0.125</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M14*I15/I$28</f>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="B27" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="28">
         <f>$K15*C16/C28</f>
-        <v>0.13333333333333333</v>
+        <v>0.1333333333333</v>
       </c>
       <c r="D27" s="28">
         <f>$K15*D16/D28</f>
@@ -3319,24 +3435,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="1"/>
+        <f>$L15*F16/F$28</f>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f t="shared" si="1"/>
+        <f>$L15*G16/G$28</f>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f t="shared" si="1"/>
+        <f>$L15*H16/H$28</f>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f t="shared" si="2"/>
+        <f>$N$6*$M15*I16/I$28</f>
         <v>2</v>
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3370,37 +3486,37 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" s="49">
-        <f t="shared" ref="C29:I29" si="3">SUM(C19:C27)</f>
-        <v>0.74444444444444446</v>
+        <f>SUM(C19:C27)</f>
+        <v>0.7444444444444</v>
       </c>
       <c r="D29" s="49">
-        <f t="shared" si="3"/>
-        <v>1.0833333333333335</v>
+        <f>SUM(D19:D27)</f>
+        <v>1.0833333333333</v>
       </c>
       <c r="E29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(E19:E27)</f>
         <v>1.68</v>
       </c>
       <c r="F29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(F19:F27)</f>
         <v>1.84</v>
       </c>
       <c r="G29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(G19:G27)</f>
         <v>1.84</v>
       </c>
       <c r="H29" s="49">
-        <f t="shared" si="3"/>
-        <v>1.1499999999999999</v>
+        <f>SUM(H19:H27)</f>
+        <v>1.15</v>
       </c>
       <c r="I29" s="49">
-        <f t="shared" si="3"/>
+        <f>SUM(I19:I27)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" s="50">
         <f>Member!D12</f>
         <v>1</v>
@@ -3430,14 +3546,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" s="28">
         <f>SUM(C19:C27)*Member!$D12</f>
-        <v>0.74444444444444446</v>
+        <v>0.7444444444444</v>
       </c>
       <c r="D31" s="28">
         <f>SUM(D19:D27)*Member!$D13</f>
-        <v>2.166666666666667</v>
+        <v>2.1666666666667</v>
       </c>
       <c r="E31" s="28">
         <f>SUM(E19:E27)*Member!$D14</f>
@@ -3461,7 +3577,7 @@
       </c>
       <c r="J31" s="40">
         <f>SUM(C31:I31)</f>
-        <v>42.63111111111111</v>
+        <v>42.631111111111</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13A7B2-273E-415E-98F1-AA6FB707572E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD2E483-B4F6-446C-9E48-F114EF3AF780}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -364,12 +364,6 @@
     <t>v1.14</t>
   </si>
   <si>
-    <t>UpKeep 18.11.2018</t>
-  </si>
-  <si>
-    <t>Gold 18.11.2018</t>
-  </si>
-  <si>
     <t>UpKeep</t>
   </si>
   <si>
@@ -379,19 +373,19 @@
     <t>up keep</t>
   </si>
   <si>
-    <t>boss cost</t>
-  </si>
-  <si>
-    <t>hired sword</t>
-  </si>
-  <si>
-    <t>gained xp 18.11.2018</t>
-  </si>
-  <si>
-    <t>wb rating add</t>
-  </si>
-  <si>
     <t>wb rating addition</t>
+  </si>
+  <si>
+    <t>*=henchmen+young'uns</t>
+  </si>
+  <si>
+    <t>hero=leader+black orks</t>
+  </si>
+  <si>
+    <t>gained xp</t>
+  </si>
+  <si>
+    <t>shooty</t>
   </si>
 </sst>
 </file>
@@ -402,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -484,11 +478,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -498,7 +487,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -565,25 +554,19 @@
       <diagonal/>
     </border>
     <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="none"/>
-    </border>
-    <border>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <right style="medium"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -644,6 +627,11 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -656,67 +644,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -766,6 +698,43 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -780,16 +749,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B22:R37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ausrüstung gesamt"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SP"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="gold/stück"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="4">
       <calculatedColumnFormula>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="black orks"/>
@@ -798,12 +767,12 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="shootaz"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="savage"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="troll"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="3">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="0">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1076,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0" topLeftCell="G1">
-      <selection activeCell="G41" sqref="G41" activeCellId="0"/>
+    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0" topLeftCell="F1">
+      <selection activeCell="D6" sqref="D6" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1126,7 +1095,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43424</v>
+        <v>43430</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1139,7 +1108,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" ht="12" customFormat="1" s="6">
+    <row r="3" ht="18" customFormat="1" s="6">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1154,14 +1123,14 @@
         <v>0</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="M3" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="N3" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" s="64" t="s">
-        <v>119</v>
+      <c r="M3" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -1170,9 +1139,9 @@
       </c>
       <c r="H4" s="35">
         <f>5*(D20)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+H19+O4</f>
-        <v>149</v>
-      </c>
-      <c r="L4" s="66">
+        <v>144</v>
+      </c>
+      <c r="L4" s="54">
         <v>43422</v>
       </c>
       <c r="M4" s="6">
@@ -1182,7 +1151,7 @@
         <f>15</f>
         <v>15</v>
       </c>
-      <c r="O4" s="0">
+      <c r="O4">
         <v>10</v>
       </c>
     </row>
@@ -1203,7 +1172,7 @@
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-      <c r="L5" s="68"/>
+      <c r="L5" s="55"/>
       <c r="N5" s="6">
         <f>G19*D18+F41*G41+F42*G42</f>
         <v>45</v>
@@ -1215,14 +1184,14 @@
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O38+G41*E41+G42*E42+N4</f>
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
-        <v>44.714444444444</v>
+        <v>46.291111111111</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -1233,12 +1202,12 @@
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="56">
         <f>H41*G41</f>
         <v>26</v>
       </c>
@@ -1249,22 +1218,22 @@
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="1" s="6">
+    <row r="9" ht="15" customFormat="1" s="6">
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>55334.125</v>
+        <v>55462.5375</v>
       </c>
     </row>
     <row r="10" customFormat="1" s="6"/>
@@ -1285,14 +1254,14 @@
         <v>4</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1311,15 +1280,15 @@
         <f>D12*C12</f>
         <v>90</v>
       </c>
-      <c r="G12" s="0">
-        <v>0</v>
-      </c>
-      <c r="H12" s="0">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="52"/>
+      <c r="A13" s="57"/>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1341,7 +1310,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="52"/>
+      <c r="A14" s="57"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1363,7 +1332,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="57" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -1373,21 +1342,24 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
         <f>D15*C15</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="P15" s="6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="52"/>
+      <c r="A16" s="57"/>
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1408,9 +1380,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="33"/>
+      <c r="P16" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="52"/>
+      <c r="A17" s="57"/>
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1430,9 +1405,12 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="P17" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="52"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1449,63 +1427,63 @@
         <f>D18*C18</f>
         <v>200</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="12">
+    <row r="19" ht="15">
       <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2">
         <f>SUM(D12:D18)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>560</v>
-      </c>
-      <c r="G19" s="59">
+        <v>535</v>
+      </c>
+      <c r="G19" s="52">
         <f>SUM(G12:G18)</f>
         <v>15</v>
       </c>
-      <c r="H19" s="59">
+      <c r="H19" s="52">
         <f>SUM(H12:H18)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="1" s="6">
+    <row r="20" ht="16" customFormat="1" s="6">
       <c r="A20" s="14"/>
       <c r="D20" s="51">
         <f>D19+SUM(G41:G45)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-    </row>
-    <row r="21">
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+    </row>
+    <row r="21" ht="15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53" t="s">
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
     </row>
     <row r="22" customFormat="1" s="6">
       <c r="B22" s="9" t="s">
@@ -1588,7 +1566,7 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" s="33">
         <f>D16</f>
@@ -1611,7 +1589,7 @@
       </c>
       <c r="R23" s="43">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="1" s="6">
@@ -1639,7 +1617,7 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1653,7 +1631,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1663,7 +1641,7 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="1" s="6">
@@ -2014,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="27" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="Q31" s="38">
         <v>7</v>
@@ -2337,7 +2315,7 @@
       </c>
       <c r="K38" s="3">
         <f>K24*$G24+K25*$G25+K26*$G26+K27*$G27+K28*$G28+K29*$G29+K30*$G30+K31*$G31+K32*$G32+K33*$G33+K34*$G34+K35*$G35+K36*$G36+K37*$G37</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L38" s="3">
         <f>L24*$G24+L25*$G25+L26*$G26+L27*$G27+L28*$G28+L29*$G29+L30*$G30+L31*$G31+L32*$G32+L33*$G33+L34*$G34+L35*$G35+L36*$G36+L37*$G37</f>
@@ -2353,7 +2331,7 @@
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="1" s="6">
@@ -2362,7 +2340,7 @@
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="1" s="6">
@@ -2427,7 +2405,7 @@
       </c>
       <c r="I41" s="28">
         <f>SUM('Characteristik analyse'!D19:D27)</f>
-        <v>1.0833333333333</v>
+        <v>1.3</v>
       </c>
       <c r="J41" s="6">
         <v>0.5</v>
@@ -2437,7 +2415,7 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" customFormat="1" s="6">
@@ -2549,7 +2527,7 @@
     <mergeCell ref="K21:N21"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="3" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="55" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2638,17 +2616,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2700,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0" topLeftCell="H2" tabSelected="true">
+      <selection activeCell="J18" sqref="J18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2721,39 +2699,39 @@
     <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="54" t="s">
+    <row r="2" ht="15">
+      <c r="B2" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-    </row>
-    <row r="3" customFormat="1" s="6">
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" ht="15" customFormat="1" s="6">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" customFormat="1" s="6">
+    <row r="4" ht="15" customFormat="1" s="6">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5">
-      <c r="C5" s="55" t="s">
+    <row r="5" ht="15">
+      <c r="C5" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="K5" s="53" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="K5" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="53"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6">
       <c r="B6" s="10"/>
@@ -3034,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="K13" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -3069,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="K14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -3358,27 +3336,27 @@
       </c>
       <c r="C25" s="28">
         <f>$K13*C14/C$28</f>
-        <v>0.0333333333333</v>
+        <v>0.0222222222222</v>
       </c>
       <c r="D25" s="28">
         <f>$K13*D14/D$28</f>
-        <v>0.05</v>
+        <v>0.0333333333333</v>
       </c>
       <c r="E25" s="28">
         <f>$K13*E14/E$28</f>
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F25" s="28">
         <f>$L13*F14/F$28</f>
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="G25" s="28">
         <f>$L13*G14/G$28</f>
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="H25" s="28">
         <f>$L13*H14/H$28</f>
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="I25" s="28">
         <f>$N$6*$M13*I14/I$28</f>
@@ -3391,27 +3369,27 @@
       </c>
       <c r="C26" s="28">
         <f>$K14*C15/C$28</f>
-        <v>0.0888888888889</v>
+        <v>0.2666666666667</v>
       </c>
       <c r="D26" s="28">
         <f>$K14*D15/D$28</f>
-        <v>0.1166666666667</v>
+        <v>0.35</v>
       </c>
       <c r="E26" s="28">
         <f>$K14*E15/E$28</f>
-        <v>0.28</v>
+        <v>0.84</v>
       </c>
       <c r="F26" s="28">
         <f>$L14*F15/F$28</f>
-        <v>0.28</v>
+        <v>0.84</v>
       </c>
       <c r="G26" s="28">
         <f>$L14*G15/G$28</f>
-        <v>0.28</v>
+        <v>0.84</v>
       </c>
       <c r="H26" s="28">
         <f>$L14*H15/H$28</f>
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="I26" s="28">
         <f>$N$6*$M14*I15/I$28</f>
@@ -3489,27 +3467,27 @@
     <row r="29">
       <c r="C29" s="49">
         <f>SUM(C19:C27)</f>
-        <v>0.7444444444444</v>
+        <v>0.9111111111109</v>
       </c>
       <c r="D29" s="49">
         <f>SUM(D19:D27)</f>
-        <v>1.0833333333333</v>
+        <v>1.3</v>
       </c>
       <c r="E29" s="49">
         <f>SUM(E19:E27)</f>
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="F29" s="49">
         <f>SUM(F19:F27)</f>
-        <v>1.84</v>
+        <v>2.36</v>
       </c>
       <c r="G29" s="49">
         <f>SUM(G19:G27)</f>
-        <v>1.84</v>
+        <v>2.36</v>
       </c>
       <c r="H29" s="49">
         <f>SUM(H19:H27)</f>
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="I29" s="49">
         <f>SUM(I19:I27)</f>
@@ -3531,7 +3509,7 @@
       </c>
       <c r="F30" s="50">
         <f>Member!D15</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30" s="50">
         <f>Member!D16</f>
@@ -3549,19 +3527,19 @@
     <row r="31">
       <c r="C31" s="28">
         <f>SUM(C19:C27)*Member!$D12</f>
-        <v>0.7444444444444</v>
+        <v>0.9111111111109</v>
       </c>
       <c r="D31" s="28">
         <f>SUM(D19:D27)*Member!$D13</f>
-        <v>2.1666666666667</v>
+        <v>2.6000000000001</v>
       </c>
       <c r="E31" s="28">
         <f>SUM(E19:E27)*Member!$D14</f>
-        <v>3.36</v>
+        <v>4.4</v>
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>7.36</v>
+        <v>7.08</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
@@ -3577,7 +3555,7 @@
       </c>
       <c r="J31" s="40">
         <f>SUM(C31:I31)</f>
-        <v>42.631111111111</v>
+        <v>43.991111111111</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD2E483-B4F6-446C-9E48-F114EF3AF780}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C8191-6880-462F-8197-EB3A5BA9783A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
   <si>
     <t>gold</t>
   </si>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="53" workbookViewId="0" topLeftCell="F1">
-      <selection activeCell="D6" sqref="D6" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1069,23 +1069,20 @@
     <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="55.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" ht="18" customFormat="1" s="6">
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1133,7 +1130,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G4" s="36" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1175,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1191,12 +1188,12 @@
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
-        <v>46.291111111111</v>
+        <v>46.291111111110993</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G8" s="34" t="s">
         <v>72</v>
       </c>
@@ -1229,15 +1226,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" ht="15" customFormat="1" s="6">
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>55462.5375</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" s="6"/>
-    <row r="11">
+        <v>55462.53749999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1260,7 +1257,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="57" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1274,7 @@
         <v>20</v>
       </c>
       <c r="F12">
-        <f>D12*C12</f>
+        <f t="shared" ref="F12:F18" si="0">D12*C12</f>
         <v>90</v>
       </c>
       <c r="G12">
@@ -1287,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" t="s">
         <v>54</v>
@@ -1302,14 +1299,14 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" t="s">
         <v>55</v>
@@ -1324,14 +1321,14 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="57" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f>D15*C15</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="G15">
@@ -1358,7 +1355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" t="s">
         <v>58</v>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <f>D16*C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16">
@@ -1384,7 +1381,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" t="s">
         <v>57</v>
@@ -1399,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <f>D17*C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17">
@@ -1409,7 +1406,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
@@ -1424,14 +1421,14 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <f>D18*C18</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="15">
+    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="16" customFormat="1" s="6">
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="D20" s="51">
         <f>D19+SUM(G41:G45)</f>
@@ -1470,7 +1467,7 @@
       <c r="M20" s="58"/>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" ht="15">
+    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="H21" s="58" t="s">
@@ -1485,7 +1482,7 @@
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" customFormat="1" s="6">
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" customFormat="1" s="33">
+    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="33" t="s">
         <v>86</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="1" s="6">
+    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="1" s="6">
+    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>85</v>
       </c>
@@ -1695,7 +1692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="1" s="6">
+    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="1" s="6">
+    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
@@ -1795,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="1" s="6">
+    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>82</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="1" s="6">
+    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
@@ -1895,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="1" s="6">
+    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="1" s="6">
+    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -2002,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="1" s="6">
+    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
@@ -2052,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="1" s="6">
+    <row r="33" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="1" s="6">
+    <row r="34" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="1" s="6">
+    <row r="35" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
@@ -2199,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="1" s="6">
+    <row r="36" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" s="6">
+    <row r="37" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2300,33 +2297,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" s="6">
+    <row r="38" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="3">
-        <f>H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
+        <f t="shared" ref="H38:N38" si="1">H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
         <v>15</v>
       </c>
       <c r="I38" s="3">
-        <f>I24*$G24+I25*$G25+I26*$G26+I27*$G27+I28*$G28+I29*$G29+I30*$G30+I31*$G31+I32*$G32+I33*$G33+I34*$G34+I35*$G35+I36*$G36+I37*$G37</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J38" s="3">
-        <f>J24*$G24+J25*$G25+J26*$G26+J27*$G27+J28*$G28+J29*$G29+J30*$G30+J31*$G31+J32*$G32+J33*$G33+J34*$G34+J35*$G35+J36*$G36+J37*$G37</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K38" s="3">
-        <f>K24*$G24+K25*$G25+K26*$G26+K27*$G27+K28*$G28+K29*$G29+K30*$G30+K31*$G31+K32*$G32+K33*$G33+K34*$G34+K35*$G35+K36*$G36+K37*$G37</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L38" s="3">
-        <f>L24*$G24+L25*$G25+L26*$G26+L27*$G27+L28*$G28+L29*$G29+L30*$G30+L31*$G31+L32*$G32+L33*$G33+L34*$G34+L35*$G35+L36*$G36+L37*$G37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <f>M24*$G24+M25*$G25+M26*$G26+M27*$G27+M28*$G28+M29*$G29+M30*$G30+M31*$G31+M32*$G32+M33*$G33+M34*$G34+M35*$G35+M36*$G36+M37*$G37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f>N24*$G24+N25*$G25+N26*$G26+N27*$G27+N28*$G28+N29*$G29+N30*$G30+N31*$G31+N32*$G32+N33*$G33+N34*$G34+N35*$G35+N36*$G36+N37*$G37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="36">
@@ -2334,7 +2331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" customFormat="1" s="6">
+    <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q39" s="6" t="s">
         <v>92</v>
       </c>
@@ -2343,7 +2340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="1" s="6">
+    <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -2379,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="1" s="6">
+    <row r="41" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2418,7 +2415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" customFormat="1" s="6">
+    <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
@@ -2448,76 +2445,76 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" customFormat="1" s="6"/>
-    <row r="44" customFormat="1" s="6"/>
-    <row r="45" customFormat="1" s="6"/>
-    <row r="46" customFormat="1" s="6"/>
-    <row r="47" customFormat="1" s="6"/>
-    <row r="48" customFormat="1" s="6"/>
-    <row r="49" customFormat="1" s="6"/>
-    <row r="50" customFormat="1" s="6">
+    <row r="43" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S50" s="1"/>
     </row>
-    <row r="51" customFormat="1" s="6">
+    <row r="51" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="16:19" x14ac:dyDescent="0.2">
       <c r="P52" s="1"/>
     </row>
-    <row r="53" customFormat="1" s="6"/>
-    <row r="54" customFormat="1" s="6"/>
-    <row r="55" customFormat="1" s="6"/>
-    <row r="56" customFormat="1" s="6"/>
-    <row r="57" customFormat="1" s="6"/>
-    <row r="58" customFormat="1" s="6"/>
-    <row r="59" customFormat="1" s="6"/>
-    <row r="60" customFormat="1" s="6"/>
-    <row r="61" customFormat="1" s="6"/>
-    <row r="62" customFormat="1" s="6"/>
-    <row r="63" customFormat="1" s="6"/>
-    <row r="64" customFormat="1" s="6"/>
-    <row r="65" customFormat="1" s="6"/>
-    <row r="66" customFormat="1" s="6"/>
-    <row r="67" customFormat="1" s="6"/>
-    <row r="68" customFormat="1" s="6"/>
-    <row r="69" customFormat="1" s="6"/>
-    <row r="70" customFormat="1" s="6"/>
-    <row r="71" customFormat="1" s="6"/>
-    <row r="72" customFormat="1" s="6"/>
-    <row r="73" customFormat="1" s="6"/>
-    <row r="74" customFormat="1" s="6"/>
-    <row r="75" customFormat="1" s="6"/>
-    <row r="76" customFormat="1" s="6"/>
-    <row r="77" customFormat="1" s="6"/>
-    <row r="78" customFormat="1" s="6"/>
-    <row r="79" customFormat="1" s="6"/>
-    <row r="80" customFormat="1" s="6"/>
-    <row r="81" customFormat="1" s="6"/>
-    <row r="82" customFormat="1" s="6"/>
-    <row r="83" customFormat="1" s="6"/>
-    <row r="84" customFormat="1" s="6"/>
-    <row r="85" customFormat="1" s="6"/>
-    <row r="86" customFormat="1" s="6"/>
-    <row r="87" customFormat="1" s="6"/>
-    <row r="88" customFormat="1" s="6"/>
-    <row r="89" customFormat="1" s="6"/>
-    <row r="90" customFormat="1" s="6"/>
-    <row r="91" customFormat="1" s="6"/>
-    <row r="92" customFormat="1" s="6"/>
-    <row r="93" customFormat="1" s="6"/>
-    <row r="94" customFormat="1" s="6"/>
-    <row r="95" customFormat="1" s="6"/>
-    <row r="96" customFormat="1" s="6"/>
-    <row r="97" customFormat="1" s="6"/>
-    <row r="98" customFormat="1" s="6"/>
-    <row r="108" customFormat="1" s="6"/>
-    <row r="109" customFormat="1" s="6"/>
-    <row r="110" customFormat="1" s="6"/>
-    <row r="111" customFormat="1" s="6"/>
-    <row r="112" customFormat="1" s="6"/>
-    <row r="113" customFormat="1" s="6"/>
-    <row r="114" customFormat="1" s="6"/>
-    <row r="115" customHeight="1" ht="12"/>
+    <row r="53" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:A14"/>
@@ -2678,16 +2675,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView zoomScale="41" zoomScaleNormal="41" workbookViewId="0" topLeftCell="H2" tabSelected="true">
-      <selection activeCell="J18" sqref="J18" activeCellId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2695,28 +2691,27 @@
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="59" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
     </row>
-    <row r="3" ht="15" customFormat="1" s="6">
+    <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" ht="15" customFormat="1" s="6">
+    <row r="4" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" ht="15">
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="60" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2728,7 @@
       </c>
       <c r="L5" s="58"/>
     </row>
-    <row r="6">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="9" t="str">
         <f>Member!B12</f>
@@ -2776,7 +2771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
@@ -2811,7 +2806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
@@ -2846,7 +2841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2881,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
@@ -2916,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
@@ -2951,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2986,7 +2981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
@@ -3021,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
@@ -3056,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
@@ -3092,7 +3087,7 @@
       </c>
       <c r="N15" s="33"/>
     </row>
-    <row r="16" customFormat="1" s="33">
+    <row r="16" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
         <v>93</v>
       </c>
@@ -3118,11 +3113,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="1" s="33">
+    <row r="17" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="45"/>
       <c r="L17" s="32"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3132,271 +3127,271 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="28">
-        <f>$K7*C8/C$28</f>
+        <f t="shared" ref="C19:E26" si="0">$K7*C8/C$28</f>
         <v>0.1333333333333</v>
       </c>
       <c r="D19" s="28">
-        <f>$K7*D8/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E19" s="28">
-        <f>$K7*E8/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F19" s="28">
-        <f>$L7*F8/F$28</f>
+        <f t="shared" ref="F19:H27" si="1">$L7*F8/F$28</f>
         <v>0.36</v>
       </c>
       <c r="G19" s="28">
-        <f>$L7*G8/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
       <c r="H19" s="28">
-        <f>$L7*H8/H$28</f>
-        <v>0.225</v>
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I19" s="28">
-        <f>$N$6*$M7*I8/I$28</f>
+        <f t="shared" ref="I19:I27" si="2">$N$6*$M7*I8/I$28</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="28">
-        <f>$K8*C9/C$28</f>
-        <v>0.0444444444444</v>
+        <f t="shared" si="0"/>
+        <v>4.4444444444400003E-2</v>
       </c>
       <c r="D20" s="28">
-        <f>$K8*D9/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E20" s="28">
-        <f>$K8*E9/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="F20" s="28">
-        <f>$L8*F9/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G20" s="28">
-        <f>$L8*G9/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H20" s="28">
-        <f>$L8*H9/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
       <c r="I20" s="28">
-        <f>$N$6*$M8*I9/I$28</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="28">
-        <f>$K9*C10/C$28</f>
-        <v>0.0444444444444</v>
+        <f t="shared" si="0"/>
+        <v>4.4444444444400003E-2</v>
       </c>
       <c r="D21" s="28">
-        <f>$K9*D10/D$28</f>
-        <v>0.0666666666667</v>
+        <f t="shared" si="0"/>
+        <v>6.66666666667E-2</v>
       </c>
       <c r="E21" s="28">
-        <f>$K9*E10/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F21" s="28">
-        <f>$L9*F10/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G21" s="28">
-        <f>$L9*G10/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H21" s="28">
-        <f>$L9*H10/H$28</f>
-        <v>0.075</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I21" s="28">
-        <f>$N$6*$M9*I10/I$28</f>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="28">
-        <f>$K10*C11/C$28</f>
+        <f t="shared" si="0"/>
         <v>0.1333333333333</v>
       </c>
       <c r="D22" s="28">
-        <f>$K10*D11/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E22" s="28">
-        <f>$K10*E11/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
       <c r="F22" s="28">
-        <f>$L10*F11/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="G22" s="28">
-        <f>$L10*G11/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.48</v>
       </c>
       <c r="H22" s="28">
-        <f>$L10*H11/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="I22" s="28">
-        <f>$N$6*$M10*I11/I$28</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="28">
-        <f>$K11*C12/C$28</f>
-        <v>0.0333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333299998E-2</v>
       </c>
       <c r="D23" s="28">
-        <f>$K11*D12/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
       <c r="E23" s="28">
-        <f>$K11*E12/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="F23" s="28">
-        <f>$L11*F12/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="G23" s="28">
-        <f>$L11*G12/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
       <c r="H23" s="28">
-        <f>$L11*H12/H$28</f>
-        <v>0.075</v>
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I23" s="28">
-        <f>$N$6*$M11*I12/I$28</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="28">
-        <f>$K12*C13/C$28</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="D24" s="28">
-        <f>$K12*D13/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
       <c r="E24" s="28">
-        <f>$K12*E13/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
       <c r="F24" s="28">
-        <f>$L12*F13/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="G24" s="28">
-        <f>$L12*G13/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="H24" s="28">
-        <f>$L12*H13/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
       <c r="I24" s="28">
-        <f>$N$6*$M12*I13/I$28</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="28">
-        <f>$K13*C14/C$28</f>
-        <v>0.0222222222222</v>
+        <f t="shared" si="0"/>
+        <v>2.2222222222200001E-2</v>
       </c>
       <c r="D25" s="28">
-        <f>$K13*D14/D$28</f>
-        <v>0.0333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3.3333333333299998E-2</v>
       </c>
       <c r="E25" s="28">
-        <f>$K13*E14/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="F25" s="28">
-        <f>$L13*F14/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="G25" s="28">
-        <f>$L13*G14/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
       <c r="H25" s="28">
-        <f>$L13*H14/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="I25" s="28">
-        <f>$N$6*$M13*I14/I$28</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="28">
-        <f>$K14*C15/C$28</f>
-        <v>0.2666666666667</v>
+        <f t="shared" si="0"/>
+        <v>0.26666666666670003</v>
       </c>
       <c r="D26" s="28">
-        <f>$K14*D15/D$28</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
       <c r="E26" s="28">
-        <f>$K14*E15/E$28</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
       <c r="F26" s="28">
-        <f>$L14*F15/F$28</f>
+        <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
       <c r="G26" s="28">
-        <f>$L14*G15/G$28</f>
+        <f t="shared" si="1"/>
         <v>0.84</v>
       </c>
       <c r="H26" s="28">
-        <f>$L14*H15/H$28</f>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="I26" s="28">
-        <f>$N$6*$M14*I15/I$28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>95</v>
       </c>
@@ -3413,24 +3408,24 @@
         <v>0</v>
       </c>
       <c r="F27" s="28">
-        <f>$L15*F16/F$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="28">
-        <f>$L15*G16/G$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H27" s="28">
-        <f>$L15*H16/H$28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="28">
-        <f>$N$6*$M15*I16/I$28</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
@@ -3464,37 +3459,37 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C29" s="49">
-        <f>SUM(C19:C27)</f>
-        <v>0.9111111111109</v>
+        <f t="shared" ref="C29:I29" si="3">SUM(C19:C27)</f>
+        <v>0.91111111111090004</v>
       </c>
       <c r="D29" s="49">
-        <f>SUM(D19:D27)</f>
+        <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
       <c r="E29" s="49">
-        <f>SUM(E19:E27)</f>
-        <v>2.2</v>
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F29" s="49">
-        <f>SUM(F19:F27)</f>
+        <f t="shared" si="3"/>
         <v>2.36</v>
       </c>
       <c r="G29" s="49">
-        <f>SUM(G19:G27)</f>
+        <f t="shared" si="3"/>
         <v>2.36</v>
       </c>
       <c r="H29" s="49">
-        <f>SUM(H19:H27)</f>
+        <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
       <c r="I29" s="49">
-        <f>SUM(I19:I27)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C30" s="50">
         <f>Member!D12</f>
         <v>1</v>
@@ -3524,10 +3519,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C31" s="28">
         <f>SUM(C19:C27)*Member!$D12</f>
-        <v>0.9111111111109</v>
+        <v>0.91111111111090004</v>
       </c>
       <c r="D31" s="28">
         <f>SUM(D19:D27)*Member!$D13</f>
@@ -3535,7 +3530,7 @@
       </c>
       <c r="E31" s="28">
         <f>SUM(E19:E27)*Member!$D14</f>
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
@@ -3555,7 +3550,7 @@
       </c>
       <c r="J31" s="40">
         <f>SUM(C31:I31)</f>
-        <v>43.991111111111</v>
+        <v>43.991111111110996</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C8191-6880-462F-8197-EB3A5BA9783A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E95066-78A8-48BC-8A06-9A8E4FB99273}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,8 +630,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1092,14 +1092,14 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43430</v>
+        <v>43437</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
       </c>
       <c r="H2" s="35">
         <f>1.25+J41*G41+J42*G42</f>
-        <v>1.875</v>
+        <v>1.375</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>98</v>
@@ -1165,14 +1165,16 @@
       </c>
       <c r="H5" s="35">
         <f>ROUNDUP((G41+G42+D19)/4,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-      <c r="L5" s="55"/>
+      <c r="L5" s="56">
+        <v>43449</v>
+      </c>
       <c r="N5" s="6">
         <f>G19*D18+F41*G41+F42*G42</f>
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -1181,14 +1183,14 @@
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O38+G41*E41+G42*E42+N4</f>
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
-        <v>46.291111111110993</v>
+        <v>51.061111111111003</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -1199,14 +1201,14 @@
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="55">
         <f>H41*G41</f>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1215,11 +1217,11 @@
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
@@ -1230,7 +1232,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>55462.53749999986</v>
+        <v>53920.533333332998</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1339,14 +1341,14 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1390,14 +1392,14 @@
         <v>40</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="24">
         <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1434,12 +1436,12 @@
       </c>
       <c r="D19" s="2">
         <f>SUM(D12:D18)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>535</v>
+        <v>625</v>
       </c>
       <c r="G19" s="52">
         <f>SUM(G12:G18)</f>
@@ -1454,7 +1456,7 @@
       <c r="A20" s="14"/>
       <c r="D20" s="51">
         <f>D19+SUM(G41:G45)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E20" s="1"/>
       <c r="H20" s="58" t="s">
@@ -1563,7 +1565,7 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L23" s="33">
         <f>D16</f>
@@ -1571,7 +1573,7 @@
       </c>
       <c r="M23" s="33">
         <f>D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="33">
         <v>0</v>
@@ -1586,7 +1588,7 @@
       </c>
       <c r="R23" s="43">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1614,13 +1616,12 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
       </c>
       <c r="M24" s="6">
-        <f>M23</f>
         <v>0</v>
       </c>
       <c r="N24" s="6">
@@ -1628,7 +1629,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1638,7 +1639,7 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2312,7 +2313,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
@@ -2328,7 +2329,7 @@
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,7 +2338,7 @@
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2394,7 +2395,7 @@
         <v>25</v>
       </c>
       <c r="G41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="6">
         <f>Q36+Q34+Q29+Q37</f>
@@ -2412,7 +2413,7 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2676,7 +2677,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H7" sqref="H7:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3504,7 +3505,7 @@
       </c>
       <c r="F30" s="50">
         <f>Member!D15</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" s="50">
         <f>Member!D16</f>
@@ -3512,7 +3513,7 @@
       </c>
       <c r="H30" s="50">
         <f>Member!D17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="50">
         <f>Member!D12</f>
@@ -3534,7 +3535,7 @@
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>7.08</v>
+        <v>11.8</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
@@ -3542,7 +3543,7 @@
       </c>
       <c r="H31" s="28">
         <f>SUM(H19:H27)*Member!$D17</f>
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="I31" s="28">
         <f>SUM(I19:I27)*Member!D18</f>
@@ -3550,7 +3551,7 @@
       </c>
       <c r="J31" s="40">
         <f>SUM(C31:I31)</f>
-        <v>43.991111111110996</v>
+        <v>50.061111111111003</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E95066-78A8-48BC-8A06-9A8E4FB99273}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23007216-B970-4AC0-B437-9954460D6A35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23007216-B970-4AC0-B437-9954460D6A35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2D1B3F-F26B-4EFA-B1E5-AA6B51117CBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,7 +631,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,7 +1045,7 @@
   <dimension ref="A2:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1169,7 +1168,7 @@
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-      <c r="L5" s="56">
+      <c r="L5" s="54">
         <v>43449</v>
       </c>
       <c r="N5" s="6">
@@ -1232,7 +1231,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>53920.533333332998</v>
+        <v>53920.533333333216</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1260,7 +1259,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1287,7 +1286,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="56"/>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1309,7 +1308,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="56"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1331,7 +1330,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -1358,7 +1357,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="56"/>
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1384,7 +1383,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="56"/>
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1409,7 +1408,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1459,30 +1458,30 @@
         <v>13</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58" t="s">
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
     </row>
     <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
@@ -2677,7 +2676,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H15"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2696,11 +2695,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
@@ -2713,21 +2712,21 @@
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="K5" s="58" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="K5" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="58"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2D1B3F-F26B-4EFA-B1E5-AA6B51117CBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377837B-99AE-40AB-899F-9A91428E63F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A2:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1091,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43437</v>
+        <v>43441</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1182,14 +1182,14 @@
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O38+G41*E41+G42*E42+N4</f>
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
-        <v>51.061111111111003</v>
+        <v>52.071111111111001</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
@@ -1231,7 +1231,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>53920.533333333216</v>
+        <v>55273.484444444002</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1340,14 +1340,14 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1391,14 +1391,14 @@
         <v>40</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="24">
         <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1440,7 +1440,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="G19" s="52">
         <f>SUM(G12:G18)</f>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L23" s="33">
         <f>D16</f>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="M23" s="33">
         <f>D17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="33">
         <v>0</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="F30" s="50">
         <f>Member!D15</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30" s="50">
         <f>Member!D16</f>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="H30" s="50">
         <f>Member!D17</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="50">
         <f>Member!D12</f>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>11.8</v>
+        <v>14.16</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="H31" s="28">
         <f>SUM(H19:H27)*Member!$D17</f>
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="I31" s="28">
         <f>SUM(I19:I27)*Member!D18</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="J31" s="40">
         <f>SUM(C31:I31)</f>
-        <v>50.061111111111003</v>
+        <v>51.071111111111001</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377837B-99AE-40AB-899F-9A91428E63F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B1FBC-9725-4885-9622-7B258CE86BD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1091,7 +1091,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43441</v>
+        <v>43445</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1231,7 +1231,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>55273.484444444002</v>
+        <v>55273.48444444433</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>14.16</v>
+        <v>14.160000000000002</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4B1FBC-9725-4885-9622-7B258CE86BD8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D4459-43DB-4E3F-AEE3-D353ED18E27B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A2:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="H2" s="35">
         <f>1.25+J41*G41+J42*G42</f>
-        <v>1.375</v>
+        <v>1.875</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>98</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="H4" s="35">
         <f>5*(D20)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+H19+O4</f>
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L4" s="54">
         <v>43422</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H5" s="35">
         <f>ROUNDUP((G41+G42+D19)/4,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="N5" s="6">
         <f>G19*D18+F41*G41+F42*G42</f>
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
@@ -1182,14 +1182,14 @@
       </c>
       <c r="B6" s="4">
         <f>F19+Member!O38+G41*E41+G42*E42+N4</f>
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
       <c r="H6" s="44">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
-        <v>52.071111111111001</v>
+        <v>48.651111111111</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -1200,14 +1200,14 @@
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
       </c>
       <c r="H7" s="55">
         <f>H41*G41</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1216,11 +1216,11 @@
       </c>
       <c r="H8" s="37">
         <f>R41</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I8" s="33">
         <f>R39</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J8" s="33">
         <f>R40</f>
@@ -1231,7 +1231,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="47">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>55273.48444444433</v>
+        <v>60205.749999999862</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1340,14 +1340,14 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="D19" s="2">
         <f>SUM(D12:D18)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="G19" s="52">
         <f>SUM(G12:G18)</f>
@@ -1455,7 +1455,7 @@
       <c r="A20" s="14"/>
       <c r="D20" s="51">
         <f>D19+SUM(G41:G45)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1"/>
       <c r="H20" s="57" t="s">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L23" s="33">
         <f>D16</f>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="R23" s="43">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2394,7 +2394,7 @@
         <v>25</v>
       </c>
       <c r="G41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="6">
         <f>Q36+Q34+Q29+Q37</f>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="F30" s="50">
         <f>Member!D15</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G30" s="50">
         <f>Member!D16</f>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*Member!$D15</f>
-        <v>14.160000000000002</v>
+        <v>9.4400000000000013</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="J31" s="40">
         <f>SUM(C31:I31)</f>
-        <v>51.071111111111001</v>
+        <v>46.351111111111003</v>
       </c>
     </row>
   </sheetData>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8D4459-43DB-4E3F-AEE3-D353ED18E27B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6372F31-F427-4AE1-8DFB-E398216960CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
   <si>
     <t>gold</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>shooty</t>
+  </si>
+  <si>
+    <t>permanently died</t>
+  </si>
+  <si>
+    <t>Warband equip rating died</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="d\.m\.yyyy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -477,6 +483,13 @@
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -618,7 +631,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -631,6 +643,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,11 +658,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -748,16 +767,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:R37" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B22:R37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle2" displayName="Tabelle2" ref="B22:S37" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="B22:S37" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ausrüstung gesamt"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Typ"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Range"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="S" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="SP"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="gold/stück"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="boss" dataDxfId="5">
       <calculatedColumnFormula>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="black orks"/>
@@ -766,13 +785,16 @@
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="shootaz"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="savage"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="troll"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="kosten" dataDxfId="4">
       <calculatedColumnFormula>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Gruppe" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Bewertung" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Warband equip rating" dataDxfId="1">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{65E6ADDE-C2E8-48A1-9AF8-CC30A173D385}" name="Warband equip rating died" dataDxfId="0">
+      <calculatedColumnFormula>I14*Tabelle2[[#This Row],[Bewertung]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1045,7 +1067,7 @@
   <dimension ref="A2:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1057,18 +1079,19 @@
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1091,7 +1114,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43445</v>
+        <v>43450</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1119,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="33"/>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="N3" s="53" t="s">
+      <c r="N3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="52" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1134,10 +1157,10 @@
         <v>40</v>
       </c>
       <c r="H4" s="35">
-        <f>5*(D20)+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+H19+O4</f>
-        <v>149</v>
-      </c>
-      <c r="L4" s="54">
+        <f>5*(D20-SUM(I12:I18))+D12*E12+D13*E13+D14*E14+D15*E15+D16*E16+D17*E17+D18*20+G41*D41+G42*D42+H19+O4+O5</f>
+        <v>152</v>
+      </c>
+      <c r="L4" s="53">
         <v>43422</v>
       </c>
       <c r="M4" s="6">
@@ -1156,8 +1179,8 @@
         <v>0</v>
       </c>
       <c r="B5" s="4">
-        <f>500+M4</f>
-        <v>700</v>
+        <f>500+M4+M5</f>
+        <v>792</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>71</v>
@@ -1168,26 +1191,34 @@
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
-      <c r="L5" s="54">
+      <c r="L5" s="53">
         <v>43449</v>
+      </c>
+      <c r="M5" s="6">
+        <f>4+8+80</f>
+        <v>92</v>
       </c>
       <c r="N5" s="6">
         <f>G19*D18+F41*G41+F42*G42</f>
         <v>45</v>
       </c>
+      <c r="O5">
+        <f>1+1+1+2+1+1+2+3+1</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4">
-        <f>F19+Member!O38+G41*E41+G42*E42+N4</f>
-        <v>693</v>
+        <f>F19+Member!O38+G41*E41+G42*E42+N4+N5</f>
+        <v>792</v>
       </c>
       <c r="G6" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="43">
         <f>'Characteristik analyse'!J31+I41*G41+G42</f>
         <v>48.651111111111</v>
       </c>
@@ -1200,12 +1231,12 @@
       </c>
       <c r="B7" s="30">
         <f>B5-B6</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="54">
         <f>H41*G41</f>
         <v>26</v>
       </c>
@@ -1215,23 +1246,17 @@
         <v>72</v>
       </c>
       <c r="H8" s="37">
-        <f>R41</f>
+        <f>R41-S41</f>
         <v>45</v>
       </c>
-      <c r="I8" s="33">
-        <f>R39</f>
-        <v>38</v>
-      </c>
-      <c r="J8" s="33">
-        <f>R40</f>
-        <v>7</v>
-      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G9" s="33"/>
-      <c r="H9" s="47">
+      <c r="H9" s="46">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>60205.749999999862</v>
+        <v>61026.737499999857</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1257,9 +1282,12 @@
       <c r="H11" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="I11" s="57" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1284,9 +1312,12 @@
       <c r="H12">
         <v>10</v>
       </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="58"/>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1306,9 +1337,12 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1328,9 +1362,12 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="58" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -1340,24 +1377,27 @@
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" s="24">
         <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G15">
         <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="58"/>
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1375,6 +1415,9 @@
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
         <v>0</v>
       </c>
       <c r="J16" s="33"/>
@@ -1382,8 +1425,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="58"/>
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1403,12 +1446,15 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
       <c r="P17" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="58"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1428,62 +1474,69 @@
       <c r="G18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I18" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="2">
-        <f>SUM(D12:D18)</f>
+        <f>SUM(D12:D18)-SUM(I12:I18)</f>
         <v>10</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="2">
         <f>SUM(F12:F18)</f>
-        <v>560</v>
-      </c>
-      <c r="G19" s="52">
+        <v>610</v>
+      </c>
+      <c r="G19" s="51">
         <f>SUM(G12:G18)</f>
         <v>15</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="51">
         <f>SUM(H12:H18)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I19" s="55">
+        <f>SUM(I12:I18)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="D20" s="51">
+      <c r="D20" s="50">
         <f>D19+SUM(G41:G45)</f>
         <v>12</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-    </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+    </row>
+    <row r="22" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1535,8 +1588,11 @@
       <c r="R22" s="39" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="33" t="s">
         <v>86</v>
       </c>
@@ -1564,7 +1620,7 @@
       </c>
       <c r="K23" s="33">
         <f>D15</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L23" s="33">
         <f>D16</f>
@@ -1585,12 +1641,16 @@
       <c r="Q23" s="38">
         <v>1</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="S23" s="38">
+        <f>I15*Tabelle2[[#This Row],[Bewertung]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>86</v>
       </c>
@@ -1615,7 +1675,7 @@
       </c>
       <c r="K24" s="6">
         <f>D15</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -1628,7 +1688,7 @@
       </c>
       <c r="O24" s="6">
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P24" s="27" t="s">
         <v>49</v>
@@ -1638,10 +1698,14 @@
       </c>
       <c r="R24" s="38">
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="S24" s="38">
+        <f>I15*Tabelle2[[#This Row],[Bewertung]]</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>85</v>
       </c>
@@ -1691,8 +1755,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
@@ -1741,8 +1808,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>83</v>
       </c>
@@ -1791,8 +1861,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S27" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>82</v>
       </c>
@@ -1841,8 +1914,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
         <v>81</v>
       </c>
@@ -1891,8 +1967,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S29" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>80</v>
       </c>
@@ -1945,8 +2024,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
@@ -1998,8 +2080,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>48</v>
       </c>
@@ -2048,8 +2133,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>78</v>
       </c>
@@ -2098,8 +2186,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>77</v>
       </c>
@@ -2145,8 +2236,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
@@ -2195,8 +2289,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -2246,8 +2343,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2296,8 +2396,11 @@
         <f>Tabelle2[[#This Row],[Bewertung]]*SUM(Tabelle2[[#This Row],[boss]:[troll]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="3">
         <f t="shared" ref="H38:N38" si="1">H24*$G24+H25*$G25+H26*$G26+H27*$G27+H28*$G28+H29*$G29+H30*$G30+H31*$G31+H32*$G32+H33*$G33+H34*$G34+H35*$G35+H36*$G36+H37*$G37</f>
         <v>15</v>
@@ -2312,7 +2415,7 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="1"/>
@@ -2328,19 +2431,23 @@
       </c>
       <c r="O38" s="36">
         <f>SUM(O23:O37)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Q39" s="6" t="s">
         <v>92</v>
       </c>
       <c r="R39" s="6">
         <f>SUM(R23:R31)</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="S39" s="33">
+        <f>SUM(S23:S31)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -2375,8 +2482,12 @@
         <f>SUM(R32:R37)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="33">
+        <f>SUM(S32:S37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
@@ -2412,10 +2523,14 @@
       </c>
       <c r="R41" s="6">
         <f>SUM(Tabelle2[Warband equip rating])</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="S41" s="33">
+        <f>SUM(Tabelle2[Warband equip rating died])</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>107</v>
       </c>
@@ -2445,12 +2560,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="43" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="2:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="50" spans="16:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="S50" s="1"/>
@@ -2524,11 +2639,23 @@
     <mergeCell ref="K21:N21"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="12" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="56" operator="greaterThan">
       <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C18">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2540,7 +2667,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C18">
+  <conditionalFormatting sqref="G24:G32">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2552,8 +2691,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G32">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="G33:G37">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33:O37">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2565,43 +2716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:O37">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G37">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:O37">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O37">
-    <cfRule type="colorScale" priority="60">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2613,7 +2728,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:N37">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2622,12 +2742,19 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:N37">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
-      <formula>0</formula>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
+  <conditionalFormatting sqref="G23:G37">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2639,8 +2766,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G37">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="Q23:Q37">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I18">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2648,18 +2787,6 @@
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:Q37">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2676,7 +2803,7 @@
   <dimension ref="B2:N31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2695,11 +2822,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
@@ -2712,21 +2839,21 @@
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59" t="s">
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="K5" s="57" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="K5" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="57"/>
+      <c r="L5" s="59"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
@@ -3079,7 +3206,7 @@
       <c r="K15" s="33">
         <v>2</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="45">
         <v>2</v>
       </c>
       <c r="M15" s="33">
@@ -3088,7 +3215,7 @@
       <c r="N15" s="33"/>
     </row>
     <row r="16" spans="2:14" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="44" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="33">
@@ -3114,7 +3241,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="45"/>
+      <c r="B17" s="44"/>
       <c r="L17" s="32"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -3429,92 +3556,92 @@
       <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="47">
         <f>Member!C12</f>
         <v>90</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="47">
         <f>Member!C13</f>
         <v>60</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="47">
         <f>Member!C14</f>
         <v>25</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="47">
         <f>Member!C15</f>
         <v>25</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="47">
         <f>Member!C16</f>
         <v>25</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="47">
         <f>Member!C17</f>
         <v>40</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="47">
         <f>Member!C18</f>
         <v>200</v>
       </c>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C29" s="49">
+      <c r="C29" s="48">
         <f t="shared" ref="C29:I29" si="3">SUM(C19:C27)</f>
         <v>0.91111111111090004</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="48">
         <f t="shared" si="3"/>
         <v>1.3</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="48">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="48">
         <f t="shared" si="3"/>
         <v>2.36</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="48">
         <f t="shared" si="3"/>
         <v>2.36</v>
       </c>
-      <c r="H29" s="49">
+      <c r="H29" s="48">
         <f t="shared" si="3"/>
         <v>1.35</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="48">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C30" s="50">
+      <c r="C30" s="49">
         <f>Member!D12</f>
         <v>1</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="49">
         <f>Member!D13</f>
         <v>2</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="49">
         <f>Member!D14</f>
         <v>2</v>
       </c>
-      <c r="F30" s="50">
-        <f>Member!D15</f>
+      <c r="F30" s="49">
+        <f>Member!D15-Member!I15</f>
         <v>4</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="49">
         <f>Member!D16</f>
         <v>0</v>
       </c>
-      <c r="H30" s="50">
+      <c r="H30" s="49">
         <f>Member!D17</f>
         <v>0</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="49">
         <f>Member!D12</f>
         <v>1</v>
       </c>
@@ -3533,7 +3660,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="F31" s="28">
-        <f>SUM(F19:F27)*Member!$D15</f>
+        <f>SUM(F19:F27)*F30</f>
         <v>9.4400000000000013</v>
       </c>
       <c r="G31" s="28">

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6372F31-F427-4AE1-8DFB-E398216960CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE761DA-210A-40EF-A9CF-F8F1DD545ACA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,6 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,7 +659,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1067,7 +1067,7 @@
   <dimension ref="A2:AA115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="19">
-        <v>43450</v>
+        <v>43464</v>
       </c>
       <c r="G2" t="s">
         <v>97</v>
@@ -1287,7 +1287,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
@@ -1317,7 +1317,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="59"/>
       <c r="B14" t="s">
         <v>55</v>
       </c>
@@ -1367,7 +1367,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
@@ -1397,7 +1397,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" t="s">
         <v>58</v>
       </c>
@@ -1426,7 +1426,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1511,30 +1511,30 @@
         <v>12</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59" t="s">
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
     </row>
     <row r="22" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
@@ -1588,7 +1588,7 @@
       <c r="R22" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="S22" s="62" t="s">
+      <c r="S22" s="58" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2822,11 +2822,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
     </row>
     <row r="3" spans="2:14" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
@@ -2839,21 +2839,21 @@
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="K5" s="59" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="K5" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="59"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>

--- a/kai/kai-warband.xlsx
+++ b/kai/kai-warband.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\kai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE761DA-210A-40EF-A9CF-F8F1DD545ACA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D22E29F-E1E1-420F-8777-72DA58752A0F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
   <si>
     <t>gold</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Warband equip rating died</t>
+  </si>
+  <si>
+    <t>hero+shooty</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1256,7 +1259,7 @@
       <c r="G9" s="33"/>
       <c r="H9" s="46">
         <f>(H3+H4+H7+H8)*H2*H5*H6</f>
-        <v>61026.737499999857</v>
+        <v>61026.737500000003</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2070,8 +2073,8 @@
         <f>SUM(Tabelle2[[#This Row],[boss]:[troll]])*Tabelle2[[#This Row],[gold/stück]]</f>
         <v>0</v>
       </c>
-      <c r="P31" s="27" t="s">
-        <v>119</v>
+      <c r="P31" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="Q31" s="38">
         <v>7</v>
@@ -3661,7 +3664,7 @@
       </c>
       <c r="F31" s="28">
         <f>SUM(F19:F27)*F30</f>
-        <v>9.4400000000000013</v>
+        <v>9.44</v>
       </c>
       <c r="G31" s="28">
         <f>SUM(G19:G27)*Member!$D16</f>
